--- a/df_appl_v_orange.xlsx
+++ b/df_appl_v_orange.xlsx
@@ -1046,328 +1046,328 @@
     <t xml:space="preserve">smfq</t>
   </si>
   <si>
+    <t xml:space="preserve">Makover, 2019_The High School Transition Program (HSTP)_cau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March, 2004_cbt_NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anxiety, disruptive behaviour, obsessive-compulsice/tic, substance use, attention-deficit/hyperactivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March_2004_Fluoxetine_Placebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinovic, 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinovic, 2006_cbt_cau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moeini, 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAD (Dorehye Amozeshie Dokhtaran)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moeini, 2019_DAD (Dorehye Amozeshie Dokhtaran)_NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mufson, 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clinical monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mufson, 1999_ipt_clinical monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mufson, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mufson, 2004_ipt_cau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirtazapine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDA trial - poor reporting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organon_2002a_Mirtazapine_Placebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organon_2002b_Mirtazapine_Placebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paxil (GlaxoSmithKline)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paxil (GlaxoSmithKline)_2009_Paroxetine_Placebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puig-Antich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responder: if K-SADS scores in both depressed mood and anhedonia were ≤2. Non-responder: if K-SADS score for at least one of these two key items were ≥3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puig-Antich_1987_Imipramine_Placebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reynolds, 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relaxation training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reynolds, 1986_cbt_Relaxation training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reynolds, 1986_cbt_wlc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohde, 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">life skills/tutoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conduct disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohde, 2004_cbt_life skills/tutoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohde, 2014a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cognitive behavioral intervention (CB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educational brochure control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-SADS (adapted)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohde, 2014a_cognitive behavioral intervention (CB)_educational brochure control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rossello, 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rossello, 1999_cbt_wlc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rossello, 1999_ipt_wlc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanford, 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Psychoeducation (FPE) + cau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanford, 2006_Family Psychoeducation (FPE) + cau_cau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santomauro, 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santomauro, 2016_cbt_wlc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shomaker, 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shomaker, 2016_cbt_psychoeducation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srivastava, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cCBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srivastava, 2020_cCBT_cau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stallard, 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attention control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stallard, 2012_cbt_attention control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stallard, 2012_cbt_cau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stark, 1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stark, 1987_pst_wlc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">self control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stark, 1987_self control_wlc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stice, 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbt based bibliotherapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assessment only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stice, 2008_cbt based bibliotherapy_assessment only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-SADS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stice, 2008_cbt_assessment only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stice, 2008_sup_assessment only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stikkelbroek, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stikkelbroek, 2020_cbt_cau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szigethy, 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Szigethy, 2007_cbt_cau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tang, 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intensive Interpersonal Psychotherapy for depressed adolescents with suicidal risk (IPT-A-IN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school-based supportive intervention and psychoeducation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tang, 2009_Intensive Interpersonal Psychotherapy for depressed adolescents with suicidal risk (IPT-A-IN)_school-based supportive intervention and psychoeducation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topooco, 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topooco, 2018_cbt_attention control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phq-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phq_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topooco, 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icbt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimal attention controlÂ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topooco, 2019_icbt_minimal attention controlÂ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Von Knorring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citalopram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European, multi-centered (31 recruitment sites)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Ask Charlotte to check paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Von Knorring_2006_Citalopram_Placebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K-SADS depression and anhedonia scores ≤2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vostanis, 1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-focused intervention</t>
+  </si>
+  <si>
     <t xml:space="preserve">mfq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makover, 2019_The High School Transition Program (HSTP)_cau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March, 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March, 2004_cbt_NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anxiety, disruptive behaviour, obsessive-compulsice/tic, substance use, attention-deficit/hyperactivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March_2004_Fluoxetine_Placebo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RADS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinovic, 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinovic, 2006_cbt_cau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moeini, 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAD (Dorehye Amozeshie Dokhtaran)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moeini, 2019_DAD (Dorehye Amozeshie Dokhtaran)_NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mufson, 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clinical monitoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mufson, 1999_ipt_clinical monitoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mufson, 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mufson, 2004_ipt_cau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirtazapine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FDA trial - poor reporting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organon_2002a_Mirtazapine_Placebo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organon_2002b_Mirtazapine_Placebo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paxil (GlaxoSmithKline)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paxil (GlaxoSmithKline)_2009_Paroxetine_Placebo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puig-Antich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responder: if K-SADS scores in both depressed mood and anhedonia were ≤2. Non-responder: if K-SADS score for at least one of these two key items were ≥3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puig-Antich_1987_Imipramine_Placebo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reynolds, 1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relaxation training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reynolds, 1986_cbt_Relaxation training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reynolds, 1986_cbt_wlc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohde, 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">life skills/tutoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conduct disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohde, 2004_cbt_life skills/tutoring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohde, 2014a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cognitive behavioral intervention (CB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">educational brochure control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K-SADS (adapted)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohde, 2014a_cognitive behavioral intervention (CB)_educational brochure control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rossello, 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rossello, 1999_cbt_wlc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rossello, 1999_ipt_wlc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanford, 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family Psychoeducation (FPE) + cau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanford, 2006_Family Psychoeducation (FPE) + cau_cau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santomauro, 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santomauro, 2016_cbt_wlc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shomaker, 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shomaker, 2016_cbt_psychoeducation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srivastava, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cCBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Srivastava, 2020_cCBT_cau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stallard, 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attention control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stallard, 2012_cbt_attention control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stallard, 2012_cbt_cau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stark, 1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stark, 1987_pst_wlc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">self control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stark, 1987_self control_wlc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stice, 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbt based bibliotherapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">assessment only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stice, 2008_cbt based bibliotherapy_assessment only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K-SADS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stice, 2008_cbt_assessment only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stice, 2008_sup_assessment only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stikkelbroek, 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stikkelbroek, 2020_cbt_cau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szigethy, 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Szigethy, 2007_cbt_cau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tang, 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intensive Interpersonal Psychotherapy for depressed adolescents with suicidal risk (IPT-A-IN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school-based supportive intervention and psychoeducation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tang, 2009_Intensive Interpersonal Psychotherapy for depressed adolescents with suicidal risk (IPT-A-IN)_school-based supportive intervention and psychoeducation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topooco, 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topooco, 2018_cbt_attention control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phq-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phq_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topooco, 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icbt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimal attention controlÂ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topooco, 2019_icbt_minimal attention controlÂ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Von Knorring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citalopram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European, multi-centered (31 recruitment sites)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Ask Charlotte to check paper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Von Knorring_2006_Citalopram_Placebo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K-SADS depression and anhedonia scores ≤2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vostanis, 1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non-focused intervention</t>
   </si>
   <si>
     <t xml:space="preserve">Vostanis, 1996_cbt_non-focused intervention</t>
@@ -22103,7 +22103,7 @@
         <v>343</v>
       </c>
       <c r="K107" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L107" t="n">
         <v>7</v>
@@ -22180,7 +22180,7 @@
       <c r="BP107"/>
       <c r="BQ107"/>
       <c r="BR107" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BS107"/>
       <c r="BT107"/>
@@ -22215,7 +22215,7 @@
         <v>60</v>
       </c>
       <c r="C108" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D108" t="s">
         <v>201</v>
@@ -22334,7 +22334,7 @@
       </c>
       <c r="BQ108"/>
       <c r="BR108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BS108"/>
       <c r="BT108"/>
@@ -22371,7 +22371,7 @@
         <v>61</v>
       </c>
       <c r="C109" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D109" t="s">
         <v>201</v>
@@ -22488,7 +22488,7 @@
       </c>
       <c r="BQ109"/>
       <c r="BR109" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BS109"/>
       <c r="BT109"/>
@@ -22527,7 +22527,7 @@
         <v>56</v>
       </c>
       <c r="C110" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D110" t="s">
         <v>201</v>
@@ -22644,7 +22644,7 @@
         <v>143</v>
       </c>
       <c r="BB110" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BC110" t="s">
         <v>131</v>
@@ -22688,7 +22688,7 @@
         <v>-3.16639477977161</v>
       </c>
       <c r="BR110" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BS110" t="n">
         <v>-22.64</v>
@@ -22765,7 +22765,7 @@
         <v>57</v>
       </c>
       <c r="C111" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D111" t="s">
         <v>201</v>
@@ -22782,7 +22782,7 @@
       <c r="H111"/>
       <c r="I111"/>
       <c r="J111" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K111" t="s">
         <v>293</v>
@@ -22882,7 +22882,7 @@
         <v>143</v>
       </c>
       <c r="BB111" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BC111" t="s">
         <v>131</v>
@@ -22926,7 +22926,7 @@
         <v>-1.4134755210858</v>
       </c>
       <c r="BR111" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BS111"/>
       <c r="BT111"/>
@@ -22963,7 +22963,7 @@
         <v>58</v>
       </c>
       <c r="C112" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D112" t="s">
         <v>201</v>
@@ -23050,7 +23050,7 @@
         <v>143</v>
       </c>
       <c r="BB112" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BC112" t="s">
         <v>131</v>
@@ -23082,7 +23082,7 @@
       <c r="BP112"/>
       <c r="BQ112"/>
       <c r="BR112" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BS112"/>
       <c r="BT112"/>
@@ -23117,7 +23117,7 @@
         <v>62</v>
       </c>
       <c r="C113" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D113" t="s">
         <v>138</v>
@@ -23262,7 +23262,7 @@
         <v>0.0746268656716415</v>
       </c>
       <c r="BR113" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BS113"/>
       <c r="BT113"/>
@@ -23301,7 +23301,7 @@
         <v>63</v>
       </c>
       <c r="C114" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D114" t="s">
         <v>138</v>
@@ -23442,7 +23442,7 @@
         <v>-0.165745856353591</v>
       </c>
       <c r="BR114" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BS114"/>
       <c r="BT114"/>
@@ -23481,7 +23481,7 @@
         <v>64</v>
       </c>
       <c r="C115" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D115" t="s">
         <v>138</v>
@@ -23622,7 +23622,7 @@
         <v>-0.0655737704918034</v>
       </c>
       <c r="BR115" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="BS115"/>
       <c r="BT115"/>
@@ -23661,7 +23661,7 @@
         <v>65</v>
       </c>
       <c r="C116" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D116" t="s">
         <v>253</v>
@@ -23676,7 +23676,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I116"/>
       <c r="J116" t="s">
@@ -23804,7 +23804,7 @@
         <v>-0.0656934306569345</v>
       </c>
       <c r="BR116" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BS116"/>
       <c r="BT116"/>
@@ -23843,7 +23843,7 @@
         <v>66</v>
       </c>
       <c r="C117" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D117" t="s">
         <v>189</v>
@@ -23861,7 +23861,7 @@
         <v>158</v>
       </c>
       <c r="I117" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J117" t="s">
         <v>101</v>
@@ -23988,7 +23988,7 @@
         <v>-0.788571428571428</v>
       </c>
       <c r="BR117" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BS117"/>
       <c r="BT117"/>
@@ -24027,7 +24027,7 @@
         <v>67</v>
       </c>
       <c r="C118" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D118" t="s">
         <v>189</v>
@@ -24045,7 +24045,7 @@
         <v>158</v>
       </c>
       <c r="I118" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J118" t="s">
         <v>149</v>
@@ -24168,7 +24168,7 @@
         <v>-0.853448275862069</v>
       </c>
       <c r="BR118" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BS118"/>
       <c r="BT118"/>
@@ -24207,7 +24207,7 @@
         <v>68</v>
       </c>
       <c r="C119" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D119" t="s">
         <v>201</v>
@@ -24352,7 +24352,7 @@
         <v>-0.82089552238806</v>
       </c>
       <c r="BR119" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BS119"/>
       <c r="BT119"/>
@@ -24391,7 +24391,7 @@
         <v>69</v>
       </c>
       <c r="C120" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D120" t="s">
         <v>201</v>
@@ -24532,7 +24532,7 @@
         <v>-1.04395604395604</v>
       </c>
       <c r="BR120" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BS120"/>
       <c r="BT120"/>
@@ -24573,13 +24573,13 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D121" t="s">
         <v>167</v>
       </c>
       <c r="E121" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F121" t="s">
         <v>127</v>
@@ -24698,7 +24698,7 @@
         <v>133</v>
       </c>
       <c r="BL121" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BM121"/>
       <c r="BN121" t="n">
@@ -24714,7 +24714,7 @@
         <v>-1.42686550108559</v>
       </c>
       <c r="BR121" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BS121" t="n">
         <v>-15.85</v>
@@ -24783,13 +24783,13 @@
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D122" t="s">
         <v>174</v>
       </c>
       <c r="E122" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F122" t="s">
         <v>127</v>
@@ -24922,7 +24922,7 @@
         <v>-0.855730773625871</v>
       </c>
       <c r="BR122" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="BS122" t="n">
         <v>-13.48</v>
@@ -24991,7 +24991,7 @@
         <v>59</v>
       </c>
       <c r="C123" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D123" t="s">
         <v>114</v>
@@ -25093,7 +25093,7 @@
       </c>
       <c r="BB123"/>
       <c r="BC123" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BD123" t="s">
         <v>132</v>
@@ -25130,7 +25130,7 @@
       <c r="BP123"/>
       <c r="BQ123"/>
       <c r="BR123" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BS123" t="n">
         <v>-16.5</v>
@@ -25215,7 +25215,7 @@
         <v>60</v>
       </c>
       <c r="C124" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D124" t="s">
         <v>114</v>
@@ -25303,7 +25303,7 @@
       </c>
       <c r="BB124"/>
       <c r="BC124" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BD124" t="s">
         <v>132</v>
@@ -25332,7 +25332,7 @@
       <c r="BP124"/>
       <c r="BQ124"/>
       <c r="BR124" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BS124"/>
       <c r="BT124"/>
@@ -25369,10 +25369,10 @@
         <v>61</v>
       </c>
       <c r="C125" t="s">
+        <v>369</v>
+      </c>
+      <c r="D125" t="s">
         <v>370</v>
-      </c>
-      <c r="D125" t="s">
-        <v>371</v>
       </c>
       <c r="E125" t="s">
         <v>281</v>
@@ -25440,7 +25440,7 @@
       <c r="AD125"/>
       <c r="AE125"/>
       <c r="AF125" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG125" t="n">
         <v>9</v>
@@ -25542,7 +25542,7 @@
         <v>-1.44736842105263</v>
       </c>
       <c r="BR125" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BS125" t="n">
         <v>-1.2</v>
@@ -25617,10 +25617,10 @@
         <v>73</v>
       </c>
       <c r="C126" t="s">
+        <v>373</v>
+      </c>
+      <c r="D126" t="s">
         <v>374</v>
-      </c>
-      <c r="D126" t="s">
-        <v>375</v>
       </c>
       <c r="E126" t="s">
         <v>98</v>
@@ -25635,7 +25635,7 @@
         <v>98</v>
       </c>
       <c r="I126" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J126" t="s">
         <v>149</v>
@@ -25758,7 +25758,7 @@
         <v>-2.18532818532819</v>
       </c>
       <c r="BR126" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BS126"/>
       <c r="BT126"/>
@@ -25797,10 +25797,10 @@
         <v>75</v>
       </c>
       <c r="C127" t="s">
+        <v>373</v>
+      </c>
+      <c r="D127" t="s">
         <v>374</v>
-      </c>
-      <c r="D127" t="s">
-        <v>375</v>
       </c>
       <c r="E127" t="s">
         <v>98</v>
@@ -25815,7 +25815,7 @@
         <v>98</v>
       </c>
       <c r="I127" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J127" t="s">
         <v>293</v>
@@ -25938,7 +25938,7 @@
         <v>-1.73107207752877</v>
       </c>
       <c r="BR127" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BS127"/>
       <c r="BT127"/>
@@ -25977,10 +25977,10 @@
         <v>74</v>
       </c>
       <c r="C128" t="s">
+        <v>373</v>
+      </c>
+      <c r="D128" t="s">
         <v>374</v>
-      </c>
-      <c r="D128" t="s">
-        <v>375</v>
       </c>
       <c r="E128" t="s">
         <v>98</v>
@@ -25995,7 +25995,7 @@
         <v>98</v>
       </c>
       <c r="I128" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J128" t="s">
         <v>294</v>
@@ -26118,7 +26118,7 @@
         <v>-1.65606668724915</v>
       </c>
       <c r="BR128" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BS128"/>
       <c r="BT128"/>
@@ -26157,10 +26157,10 @@
         <v>70</v>
       </c>
       <c r="C129" t="s">
+        <v>373</v>
+      </c>
+      <c r="D129" t="s">
         <v>374</v>
-      </c>
-      <c r="D129" t="s">
-        <v>375</v>
       </c>
       <c r="E129" t="s">
         <v>98</v>
@@ -26302,7 +26302,7 @@
         <v>0.184313725490196</v>
       </c>
       <c r="BR129" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BS129"/>
       <c r="BT129"/>
@@ -26341,10 +26341,10 @@
         <v>72</v>
       </c>
       <c r="C130" t="s">
+        <v>373</v>
+      </c>
+      <c r="D130" t="s">
         <v>374</v>
-      </c>
-      <c r="D130" t="s">
-        <v>375</v>
       </c>
       <c r="E130" t="s">
         <v>98</v>
@@ -26482,7 +26482,7 @@
         <v>0.0492957746478875</v>
       </c>
       <c r="BR130" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BS130"/>
       <c r="BT130"/>
@@ -26521,10 +26521,10 @@
         <v>71</v>
       </c>
       <c r="C131" t="s">
+        <v>373</v>
+      </c>
+      <c r="D131" t="s">
         <v>374</v>
-      </c>
-      <c r="D131" t="s">
-        <v>375</v>
       </c>
       <c r="E131" t="s">
         <v>98</v>
@@ -26662,7 +26662,7 @@
         <v>1.14944237918216</v>
       </c>
       <c r="BR131" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BS131"/>
       <c r="BT131"/>
@@ -26701,7 +26701,7 @@
         <v>77</v>
       </c>
       <c r="C132" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D132" t="s">
         <v>201</v>
@@ -26719,7 +26719,7 @@
         <v>98</v>
       </c>
       <c r="I132" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J132" t="s">
         <v>101</v>
@@ -26837,7 +26837,7 @@
       </c>
       <c r="BL132"/>
       <c r="BM132" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BN132"/>
       <c r="BO132"/>
@@ -26848,7 +26848,7 @@
         <v>0.393162393162393</v>
       </c>
       <c r="BR132" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BS132"/>
       <c r="BT132"/>
@@ -26887,7 +26887,7 @@
         <v>76</v>
       </c>
       <c r="C133" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D133" t="s">
         <v>201</v>
@@ -26905,7 +26905,7 @@
         <v>98</v>
       </c>
       <c r="I133" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J133" t="s">
         <v>149</v>
@@ -27019,7 +27019,7 @@
       </c>
       <c r="BL133"/>
       <c r="BM133" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BN133"/>
       <c r="BO133"/>
@@ -27030,7 +27030,7 @@
         <v>0.174311926605505</v>
       </c>
       <c r="BR133" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BS133"/>
       <c r="BT133"/>
@@ -27069,7 +27069,7 @@
         <v>118</v>
       </c>
       <c r="C134" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D134" t="s">
         <v>125</v>
@@ -27084,13 +27084,13 @@
         <v>1</v>
       </c>
       <c r="H134" t="s">
+        <v>383</v>
+      </c>
+      <c r="I134" t="s">
         <v>384</v>
       </c>
-      <c r="I134" t="s">
+      <c r="J134" t="s">
         <v>385</v>
-      </c>
-      <c r="J134" t="s">
-        <v>386</v>
       </c>
       <c r="K134" t="s">
         <v>152</v>
@@ -27210,7 +27210,7 @@
         <v>0.311688311688312</v>
       </c>
       <c r="BR134" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="BS134"/>
       <c r="BT134"/>
@@ -27249,7 +27249,7 @@
         <v>78</v>
       </c>
       <c r="C135" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D135" t="s">
         <v>189</v>
@@ -27394,7 +27394,7 @@
         <v>-0.670826833073323</v>
       </c>
       <c r="BR135" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BS135"/>
       <c r="BT135"/>
@@ -27433,7 +27433,7 @@
         <v>79</v>
       </c>
       <c r="C136" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D136" t="s">
         <v>189</v>
@@ -27578,7 +27578,7 @@
         <v>-0.670826833073323</v>
       </c>
       <c r="BR136" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BS136"/>
       <c r="BT136"/>
@@ -27617,7 +27617,7 @@
         <v>80</v>
       </c>
       <c r="C137" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D137" t="s">
         <v>138</v>
@@ -27632,7 +27632,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I137" t="s">
         <v>115</v>
@@ -27703,7 +27703,7 @@
       </c>
       <c r="BB137"/>
       <c r="BC137" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BD137"/>
       <c r="BE137" t="n">
@@ -27717,7 +27717,7 @@
       <c r="BI137"/>
       <c r="BJ137"/>
       <c r="BK137" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BL137"/>
       <c r="BM137"/>
@@ -27726,7 +27726,7 @@
       <c r="BP137"/>
       <c r="BQ137"/>
       <c r="BR137" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BS137"/>
       <c r="BT137"/>
@@ -27761,7 +27761,7 @@
         <v>81</v>
       </c>
       <c r="C138" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D138" t="s">
         <v>177</v>
@@ -27782,10 +27782,10 @@
         <v>100</v>
       </c>
       <c r="J138" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K138" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L138" t="n">
         <v>99</v>
@@ -27897,7 +27897,7 @@
       </c>
       <c r="BL138"/>
       <c r="BM138" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="BN138"/>
       <c r="BO138"/>
@@ -27908,7 +27908,7 @@
         <v>0.20610349402919</v>
       </c>
       <c r="BR138" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BS138"/>
       <c r="BT138"/>
@@ -27947,7 +27947,7 @@
         <v>84</v>
       </c>
       <c r="C139" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D139" t="s">
         <v>177</v>
@@ -28076,7 +28076,7 @@
         <v>-1.42666666666667</v>
       </c>
       <c r="BR139" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BS139"/>
       <c r="BT139"/>
@@ -28115,7 +28115,7 @@
         <v>86</v>
       </c>
       <c r="C140" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D140" t="s">
         <v>204</v>
@@ -28130,7 +28130,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I140" t="s">
         <v>115</v>
@@ -28256,7 +28256,7 @@
         <v>-3.29770992366412</v>
       </c>
       <c r="BR140" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BS140"/>
       <c r="BT140"/>
@@ -28295,7 +28295,7 @@
         <v>85</v>
       </c>
       <c r="C141" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D141" t="s">
         <v>204</v>
@@ -28310,7 +28310,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I141" t="s">
         <v>115</v>
@@ -28436,7 +28436,7 @@
         <v>-1.77319587628866</v>
       </c>
       <c r="BR141" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BS141"/>
       <c r="BT141"/>
@@ -28475,7 +28475,7 @@
         <v>87</v>
       </c>
       <c r="C142" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D142" t="s">
         <v>334</v>
@@ -28493,13 +28493,13 @@
         <v>98</v>
       </c>
       <c r="I142" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J142" t="s">
         <v>343</v>
       </c>
       <c r="K142" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L142" t="n">
         <v>7</v>
@@ -28589,7 +28589,7 @@
       </c>
       <c r="BB142"/>
       <c r="BC142" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BD142"/>
       <c r="BE142" t="n">
@@ -28616,7 +28616,7 @@
         <v>-0.398104265402843</v>
       </c>
       <c r="BR142" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BS142"/>
       <c r="BT142"/>
@@ -28655,7 +28655,7 @@
         <v>88</v>
       </c>
       <c r="C143" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D143" t="s">
         <v>334</v>
@@ -28679,7 +28679,7 @@
         <v>343</v>
       </c>
       <c r="K143" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L143" t="n">
         <v>7</v>
@@ -28773,7 +28773,7 @@
       </c>
       <c r="BB143"/>
       <c r="BC143" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BD143"/>
       <c r="BE143" t="n">
@@ -28800,7 +28800,7 @@
         <v>-0.705550329256821</v>
       </c>
       <c r="BR143" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="BS143"/>
       <c r="BT143"/>
@@ -28839,13 +28839,13 @@
         <v>91</v>
       </c>
       <c r="C144" t="s">
+        <v>409</v>
+      </c>
+      <c r="D144" t="s">
+        <v>370</v>
+      </c>
+      <c r="E144" t="s">
         <v>410</v>
-      </c>
-      <c r="D144" t="s">
-        <v>371</v>
-      </c>
-      <c r="E144" t="s">
-        <v>411</v>
       </c>
       <c r="F144" t="s">
         <v>99</v>
@@ -28854,7 +28854,7 @@
         <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I144" t="s">
         <v>100</v>
@@ -28984,7 +28984,7 @@
         <v>-0.349079263410729</v>
       </c>
       <c r="BR144" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="BS144"/>
       <c r="BT144"/>
@@ -29023,13 +29023,13 @@
         <v>89</v>
       </c>
       <c r="C145" t="s">
+        <v>409</v>
+      </c>
+      <c r="D145" t="s">
+        <v>370</v>
+      </c>
+      <c r="E145" t="s">
         <v>410</v>
-      </c>
-      <c r="D145" t="s">
-        <v>371</v>
-      </c>
-      <c r="E145" t="s">
-        <v>411</v>
       </c>
       <c r="F145" t="s">
         <v>99</v>
@@ -29038,7 +29038,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I145" t="s">
         <v>100</v>
@@ -29164,7 +29164,7 @@
         <v>-0.152602324406266</v>
       </c>
       <c r="BR145" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="BS145"/>
       <c r="BT145"/>
@@ -29203,13 +29203,13 @@
         <v>90</v>
       </c>
       <c r="C146" t="s">
+        <v>409</v>
+      </c>
+      <c r="D146" t="s">
+        <v>370</v>
+      </c>
+      <c r="E146" t="s">
         <v>410</v>
-      </c>
-      <c r="D146" t="s">
-        <v>371</v>
-      </c>
-      <c r="E146" t="s">
-        <v>411</v>
       </c>
       <c r="F146" t="s">
         <v>99</v>
@@ -29218,16 +29218,16 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I146" t="s">
         <v>100</v>
       </c>
       <c r="J146" t="s">
+        <v>412</v>
+      </c>
+      <c r="K146" t="s">
         <v>413</v>
-      </c>
-      <c r="K146" t="s">
-        <v>414</v>
       </c>
       <c r="L146" t="n">
         <v>10</v>
@@ -29344,7 +29344,7 @@
         <v>-0.374746597161888</v>
       </c>
       <c r="BR146" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="BS146"/>
       <c r="BT146"/>
@@ -29383,13 +29383,13 @@
         <v>92</v>
       </c>
       <c r="C147" t="s">
+        <v>409</v>
+      </c>
+      <c r="D147" t="s">
+        <v>370</v>
+      </c>
+      <c r="E147" t="s">
         <v>410</v>
-      </c>
-      <c r="D147" t="s">
-        <v>371</v>
-      </c>
-      <c r="E147" t="s">
-        <v>411</v>
       </c>
       <c r="F147" t="s">
         <v>99</v>
@@ -29398,7 +29398,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I147" t="s">
         <v>100</v>
@@ -29524,7 +29524,7 @@
         <v>0.322781988408382</v>
       </c>
       <c r="BR147" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="BS147"/>
       <c r="BT147"/>
@@ -29563,10 +29563,10 @@
         <v>95</v>
       </c>
       <c r="C148" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D148" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E148" t="s">
         <v>208</v>
@@ -29578,7 +29578,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I148" t="s">
         <v>100</v>
@@ -29708,7 +29708,7 @@
         <v>-0.349079263410729</v>
       </c>
       <c r="BR148" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="BS148"/>
       <c r="BT148"/>
@@ -29747,10 +29747,10 @@
         <v>93</v>
       </c>
       <c r="C149" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D149" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E149" t="s">
         <v>208</v>
@@ -29762,7 +29762,7 @@
         <v>1</v>
       </c>
       <c r="H149" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I149" t="s">
         <v>100</v>
@@ -29888,7 +29888,7 @@
         <v>-0.152602324406266</v>
       </c>
       <c r="BR149" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="BS149"/>
       <c r="BT149"/>
@@ -29927,10 +29927,10 @@
         <v>94</v>
       </c>
       <c r="C150" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D150" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E150" t="s">
         <v>208</v>
@@ -29942,16 +29942,16 @@
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I150" t="s">
         <v>100</v>
       </c>
       <c r="J150" t="s">
+        <v>412</v>
+      </c>
+      <c r="K150" t="s">
         <v>413</v>
-      </c>
-      <c r="K150" t="s">
-        <v>414</v>
       </c>
       <c r="L150" t="n">
         <v>10</v>
@@ -30068,7 +30068,7 @@
         <v>-0.374746597161888</v>
       </c>
       <c r="BR150" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="BS150"/>
       <c r="BT150"/>
@@ -30107,10 +30107,10 @@
         <v>96</v>
       </c>
       <c r="C151" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D151" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E151" t="s">
         <v>208</v>
@@ -30122,7 +30122,7 @@
         <v>1</v>
       </c>
       <c r="H151" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I151" t="s">
         <v>100</v>
@@ -30248,7 +30248,7 @@
         <v>0.322781988408382</v>
       </c>
       <c r="BR151" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="BS151"/>
       <c r="BT151"/>
@@ -30287,10 +30287,10 @@
         <v>99</v>
       </c>
       <c r="C152" t="s">
+        <v>416</v>
+      </c>
+      <c r="D152" t="s">
         <v>417</v>
-      </c>
-      <c r="D152" t="s">
-        <v>418</v>
       </c>
       <c r="E152" t="s">
         <v>98</v>
@@ -30302,10 +30302,10 @@
         <v>1</v>
       </c>
       <c r="H152" t="s">
+        <v>418</v>
+      </c>
+      <c r="I152" t="s">
         <v>419</v>
-      </c>
-      <c r="I152" t="s">
-        <v>420</v>
       </c>
       <c r="J152" t="s">
         <v>149</v>
@@ -30428,7 +30428,7 @@
         <v>-0.304691618344755</v>
       </c>
       <c r="BR152" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BS152"/>
       <c r="BT152"/>
@@ -30467,10 +30467,10 @@
         <v>100</v>
       </c>
       <c r="C153" t="s">
+        <v>416</v>
+      </c>
+      <c r="D153" t="s">
         <v>417</v>
-      </c>
-      <c r="D153" t="s">
-        <v>418</v>
       </c>
       <c r="E153" t="s">
         <v>98</v>
@@ -30482,13 +30482,13 @@
         <v>1</v>
       </c>
       <c r="H153" t="s">
+        <v>418</v>
+      </c>
+      <c r="I153" t="s">
         <v>419</v>
       </c>
-      <c r="I153" t="s">
-        <v>420</v>
-      </c>
       <c r="J153" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K153" t="s">
         <v>152</v>
@@ -30608,7 +30608,7 @@
         <v>-0.303030303030303</v>
       </c>
       <c r="BR153" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BS153"/>
       <c r="BT153"/>
@@ -30647,10 +30647,10 @@
         <v>97</v>
       </c>
       <c r="C154" t="s">
+        <v>416</v>
+      </c>
+      <c r="D154" t="s">
         <v>417</v>
-      </c>
-      <c r="D154" t="s">
-        <v>418</v>
       </c>
       <c r="E154" t="s">
         <v>98</v>
@@ -30665,7 +30665,7 @@
         <v>98</v>
       </c>
       <c r="I154" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J154" t="s">
         <v>149</v>
@@ -30792,7 +30792,7 @@
         <v>-0.304691618344755</v>
       </c>
       <c r="BR154" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BS154"/>
       <c r="BT154"/>
@@ -30831,10 +30831,10 @@
         <v>98</v>
       </c>
       <c r="C155" t="s">
+        <v>416</v>
+      </c>
+      <c r="D155" t="s">
         <v>417</v>
-      </c>
-      <c r="D155" t="s">
-        <v>418</v>
       </c>
       <c r="E155" t="s">
         <v>98</v>
@@ -30849,10 +30849,10 @@
         <v>98</v>
       </c>
       <c r="I155" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J155" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K155" t="s">
         <v>152</v>
@@ -30972,7 +30972,7 @@
         <v>-0.303030303030303</v>
       </c>
       <c r="BR155" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BS155"/>
       <c r="BT155"/>
@@ -31011,13 +31011,13 @@
         <v>101</v>
       </c>
       <c r="C156" t="s">
+        <v>416</v>
+      </c>
+      <c r="D156" t="s">
         <v>417</v>
       </c>
-      <c r="D156" t="s">
-        <v>418</v>
-      </c>
       <c r="E156" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F156" t="s">
         <v>115</v>
@@ -31026,10 +31026,10 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I156" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J156" t="s">
         <v>149</v>
@@ -31156,7 +31156,7 @@
         <v>-0.304691618344755</v>
       </c>
       <c r="BR156" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BS156"/>
       <c r="BT156"/>
@@ -31195,13 +31195,13 @@
         <v>102</v>
       </c>
       <c r="C157" t="s">
+        <v>416</v>
+      </c>
+      <c r="D157" t="s">
         <v>417</v>
       </c>
-      <c r="D157" t="s">
-        <v>418</v>
-      </c>
       <c r="E157" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F157" t="s">
         <v>115</v>
@@ -31210,13 +31210,13 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I157" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J157" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K157" t="s">
         <v>152</v>
@@ -31336,7 +31336,7 @@
         <v>-0.303030303030303</v>
       </c>
       <c r="BR157" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BS157"/>
       <c r="BT157"/>
@@ -31375,7 +31375,7 @@
         <v>103</v>
       </c>
       <c r="C158" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D158" t="s">
         <v>204</v>
@@ -31396,7 +31396,7 @@
         <v>115</v>
       </c>
       <c r="J158" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K158" t="s">
         <v>152</v>
@@ -31476,7 +31476,7 @@
       <c r="BP158"/>
       <c r="BQ158"/>
       <c r="BR158" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BS158"/>
       <c r="BT158"/>
@@ -31511,7 +31511,7 @@
         <v>104</v>
       </c>
       <c r="C159" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D159" t="s">
         <v>157</v>
@@ -31656,7 +31656,7 @@
         <v>-0.53125</v>
       </c>
       <c r="BR159" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BS159"/>
       <c r="BT159"/>
@@ -31695,7 +31695,7 @@
         <v>105</v>
       </c>
       <c r="C160" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D160" t="s">
         <v>157</v>
@@ -31716,7 +31716,7 @@
         <v>115</v>
       </c>
       <c r="J160" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K160" t="s">
         <v>152</v>
@@ -31836,7 +31836,7 @@
         <v>0.0571428571428572</v>
       </c>
       <c r="BR160" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BS160"/>
       <c r="BT160"/>
@@ -31875,7 +31875,7 @@
         <v>120</v>
       </c>
       <c r="C161" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D161" t="s">
         <v>114</v>
@@ -31890,10 +31890,10 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
+        <v>430</v>
+      </c>
+      <c r="I161" t="s">
         <v>431</v>
-      </c>
-      <c r="I161" t="s">
-        <v>432</v>
       </c>
       <c r="J161" t="s">
         <v>215</v>
@@ -31989,7 +31989,7 @@
       </c>
       <c r="BB161"/>
       <c r="BC161" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BD161"/>
       <c r="BE161" t="n">
@@ -32018,7 +32018,7 @@
         <v>-0.0714630613230325</v>
       </c>
       <c r="BR161" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="BS161"/>
       <c r="BT161"/>
@@ -32057,10 +32057,10 @@
         <v>121</v>
       </c>
       <c r="C162" t="s">
+        <v>434</v>
+      </c>
+      <c r="D162" t="s">
         <v>435</v>
-      </c>
-      <c r="D162" t="s">
-        <v>436</v>
       </c>
       <c r="E162" t="s">
         <v>98</v>
@@ -32075,7 +32075,7 @@
         <v>98</v>
       </c>
       <c r="I162" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J162" t="s">
         <v>215</v>
@@ -32202,7 +32202,7 @@
         <v>-0.788888888888889</v>
       </c>
       <c r="BR162" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BS162"/>
       <c r="BT162"/>
@@ -32241,10 +32241,10 @@
         <v>122</v>
       </c>
       <c r="C163" t="s">
+        <v>434</v>
+      </c>
+      <c r="D163" t="s">
         <v>435</v>
-      </c>
-      <c r="D163" t="s">
-        <v>436</v>
       </c>
       <c r="E163" t="s">
         <v>98</v>
@@ -32259,13 +32259,13 @@
         <v>98</v>
       </c>
       <c r="I163" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J163" t="s">
+        <v>437</v>
+      </c>
+      <c r="K163" t="s">
         <v>438</v>
-      </c>
-      <c r="K163" t="s">
-        <v>439</v>
       </c>
       <c r="L163" t="n">
         <v>99</v>
@@ -32382,7 +32382,7 @@
         <v>-1.025</v>
       </c>
       <c r="BR163" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="BS163"/>
       <c r="BT163"/>
@@ -32421,7 +32421,7 @@
         <v>106</v>
       </c>
       <c r="C164" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D164" t="s">
         <v>253</v>
@@ -32436,10 +32436,10 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
+        <v>440</v>
+      </c>
+      <c r="I164" t="s">
         <v>441</v>
-      </c>
-      <c r="I164" t="s">
-        <v>442</v>
       </c>
       <c r="J164" t="s">
         <v>149</v>
@@ -32562,7 +32562,7 @@
         <v>-0.437158469945355</v>
       </c>
       <c r="BR164" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="BS164"/>
       <c r="BT164"/>
@@ -32603,13 +32603,13 @@
         <v>63</v>
       </c>
       <c r="C165" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D165" t="s">
         <v>138</v>
       </c>
       <c r="E165" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F165" t="s">
         <v>127</v>
@@ -32707,7 +32707,7 @@
       </c>
       <c r="BB165"/>
       <c r="BC165" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="BD165" t="s">
         <v>306</v>
@@ -32728,7 +32728,7 @@
         <v>133</v>
       </c>
       <c r="BL165" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="BM165"/>
       <c r="BN165" t="n">
@@ -32742,7 +32742,7 @@
         <v>-2.16545454545455</v>
       </c>
       <c r="BR165" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BS165" t="n">
         <v>-12.09</v>
@@ -32827,13 +32827,13 @@
         <v>62</v>
       </c>
       <c r="C166" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D166" t="s">
         <v>138</v>
       </c>
       <c r="E166" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F166" t="s">
         <v>127</v>
@@ -32894,7 +32894,7 @@
       <c r="AD166"/>
       <c r="AE166"/>
       <c r="AF166" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG166"/>
       <c r="AH166"/>
@@ -32927,7 +32927,7 @@
       </c>
       <c r="BB166"/>
       <c r="BC166" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="BD166" t="s">
         <v>306</v>
@@ -32956,7 +32956,7 @@
       <c r="BP166"/>
       <c r="BQ166"/>
       <c r="BR166" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BS166"/>
       <c r="BT166"/>
@@ -32991,7 +32991,7 @@
         <v>107</v>
       </c>
       <c r="C167" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D167" t="s">
         <v>315</v>
@@ -33009,13 +33009,13 @@
         <v>98</v>
       </c>
       <c r="I167" t="s">
+        <v>450</v>
+      </c>
+      <c r="J167" t="s">
         <v>451</v>
       </c>
-      <c r="J167" t="s">
-        <v>344</v>
-      </c>
       <c r="K167" t="s">
-        <v>344</v>
+        <v>451</v>
       </c>
       <c r="L167" t="n">
         <v>7</v>
@@ -33105,7 +33105,7 @@
       </c>
       <c r="BB167"/>
       <c r="BC167" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BD167"/>
       <c r="BE167" t="n">
@@ -33171,7 +33171,7 @@
         <v>108</v>
       </c>
       <c r="C168" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D168" t="s">
         <v>315</v>
@@ -33189,13 +33189,13 @@
         <v>98</v>
       </c>
       <c r="I168" t="s">
+        <v>450</v>
+      </c>
+      <c r="J168" t="s">
         <v>451</v>
       </c>
-      <c r="J168" t="s">
-        <v>344</v>
-      </c>
       <c r="K168" t="s">
-        <v>344</v>
+        <v>451</v>
       </c>
       <c r="L168" t="n">
         <v>7</v>
@@ -33289,7 +33289,7 @@
       </c>
       <c r="BB168"/>
       <c r="BC168" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BD168"/>
       <c r="BE168" t="n">
@@ -33703,7 +33703,7 @@
         <v>201</v>
       </c>
       <c r="E171" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F171" t="s">
         <v>127</v>
@@ -33939,7 +33939,7 @@
         <v>201</v>
       </c>
       <c r="E172" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F172" t="s">
         <v>127</v>
@@ -35228,10 +35228,10 @@
         <v>474</v>
       </c>
       <c r="J179" t="s">
-        <v>344</v>
+        <v>451</v>
       </c>
       <c r="K179" t="s">
-        <v>344</v>
+        <v>451</v>
       </c>
       <c r="L179" t="n">
         <v>7</v>
@@ -35321,7 +35321,7 @@
       </c>
       <c r="BB179"/>
       <c r="BC179" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BD179"/>
       <c r="BE179" t="n">
@@ -36153,7 +36153,7 @@
       </c>
       <c r="BB184"/>
       <c r="BC184" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BD184"/>
       <c r="BE184" t="n">

--- a/df_appl_v_orange.xlsx
+++ b/df_appl_v_orange.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="494">
   <si>
     <t xml:space="preserve">X</t>
   </si>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">Atkinson</t>
   </si>
   <si>
-    <t xml:space="preserve">2014.0</t>
+    <t xml:space="preserve">2014</t>
   </si>
   <si>
     <t xml:space="preserve">Duloxetine</t>
@@ -434,19 +434,19 @@
     <t xml:space="preserve">mdd</t>
   </si>
   <si>
-    <t xml:space="preserve">Atkinson_2014.0_Duloxetine_Placebo</t>
+    <t xml:space="preserve">Atkinson_2014_Duloxetine_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">Fluoxetine</t>
   </si>
   <si>
-    <t xml:space="preserve">Atkinson_2014.0_Fluoxetine_Placebo</t>
+    <t xml:space="preserve">Atkinson_2014_Fluoxetine_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">Berard</t>
   </si>
   <si>
-    <t xml:space="preserve">2006.0</t>
+    <t xml:space="preserve">2006</t>
   </si>
   <si>
     <t xml:space="preserve">Paroxetine</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">12 to 19</t>
   </si>
   <si>
-    <t xml:space="preserve">Berard_2006.0_Paroxetine_Placebo</t>
+    <t xml:space="preserve">Berard_2006_Paroxetine_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">BDI</t>
@@ -689,13 +689,13 @@
     <t xml:space="preserve">Emslie</t>
   </si>
   <si>
-    <t xml:space="preserve">1997.0</t>
+    <t xml:space="preserve">1997</t>
   </si>
   <si>
     <t xml:space="preserve">Dysthymia, anxiety disordes, ADHD, oppositional/conduct disorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Emslie_1997.0_Fluoxetine_Placebo</t>
+    <t xml:space="preserve">Emslie_1997_Fluoxetine_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">CDI/BDI *</t>
@@ -731,7 +731,7 @@
     <t xml:space="preserve">adhd was the most prevalent psychiatric condition, but others were not listed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Emslie_2006.0_Paroxetine_Placebo</t>
+    <t xml:space="preserve">Emslie_2006_Paroxetine_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">2007a</t>
@@ -758,9 +758,6 @@
     <t xml:space="preserve">Emslie_2007b_Venlafaxine_Placebo</t>
   </si>
   <si>
-    <t xml:space="preserve">2009.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Escitalopram</t>
   </si>
   <si>
@@ -773,7 +770,7 @@
     <t xml:space="preserve">Has two response criteria (40% improvement, and CGI-I)</t>
   </si>
   <si>
-    <t xml:space="preserve">Emslie_2009.0_Escitalopram_Placebo</t>
+    <t xml:space="preserve">Emslie_2009_Escitalopram_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">50% improvement from baseline scores</t>
@@ -785,10 +782,10 @@
     <t xml:space="preserve">*Had four conditions (duloxetine 60mg, duloxetine 30mg, fluoxetine 20mg, placebo)</t>
   </si>
   <si>
-    <t xml:space="preserve">Emslie_2014.0_Duloxetine_Placebo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emslie_2014.0_Fluoxetine_Placebo</t>
+    <t xml:space="preserve">Emslie_2014_Duloxetine_Placebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emslie_2014_Fluoxetine_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">Esposito-Smythers, 2019</t>
@@ -812,7 +809,7 @@
     <t xml:space="preserve">Substance-related disorder, ADHD, PTSD, conduct disorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Findling_2009.0_Fluoxetine_Placebo</t>
+    <t xml:space="preserve">Findling_2009_Fluoxetine_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">Fristad, 2019</t>
@@ -833,7 +830,7 @@
     <t xml:space="preserve">Geller</t>
   </si>
   <si>
-    <t xml:space="preserve">1990.0</t>
+    <t xml:space="preserve">1990</t>
   </si>
   <si>
     <t xml:space="preserve">Nortriptyline</t>
@@ -845,7 +842,7 @@
     <t xml:space="preserve">Melancholia, separation anxiety, antisocial behaviour</t>
   </si>
   <si>
-    <t xml:space="preserve">Geller_1990.0_Nortriptyline_Placebo</t>
+    <t xml:space="preserve">Geller_1990_Nortriptyline_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">GAS</t>
@@ -854,7 +851,7 @@
     <t xml:space="preserve">gas</t>
   </si>
   <si>
-    <t xml:space="preserve">1992.0</t>
+    <t xml:space="preserve">1992</t>
   </si>
   <si>
     <t xml:space="preserve">CDRS score of ≤20</t>
@@ -863,7 +860,7 @@
     <t xml:space="preserve">6 to 12</t>
   </si>
   <si>
-    <t xml:space="preserve">Geller_1992.0_Nortriptyline_Placebo</t>
+    <t xml:space="preserve">Geller_1992_Nortriptyline_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">Scores of 1 or 2 on all MDD items on the K-SADS</t>
@@ -872,9 +869,6 @@
     <t xml:space="preserve">Gillham, 2006</t>
   </si>
   <si>
-    <t xml:space="preserve">2006</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gillham, 2006_cbt_cau</t>
   </si>
   <si>
@@ -890,7 +884,7 @@
     <t xml:space="preserve">Anxiety-related disorders (Group1) and Conduct or oppositional disorders (group2)</t>
   </si>
   <si>
-    <t xml:space="preserve">Hughes_1990.0_Imipramine_Placebo</t>
+    <t xml:space="preserve">Hughes_1990_Imipramine_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">Idsoe, 2019</t>
@@ -911,9 +905,6 @@
     <t xml:space="preserve">Kahn, 1990</t>
   </si>
   <si>
-    <t xml:space="preserve">1990</t>
-  </si>
-  <si>
     <t xml:space="preserve">Relaxation</t>
   </si>
   <si>
@@ -938,27 +929,21 @@
     <t xml:space="preserve">Keller</t>
   </si>
   <si>
-    <t xml:space="preserve">2001.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anxiety disorders (e.g. separation anxiety, social anxiety disorder) and externalising disorders</t>
   </si>
   <si>
     <t xml:space="preserve">12 to 18</t>
   </si>
   <si>
-    <t xml:space="preserve">Keller_2001.0_Imipramine_Placebo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keller_2001.0_Paroxetine_Placebo</t>
+    <t xml:space="preserve">Keller_2001_Imipramine_Placebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keller_2001_Paroxetine_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">Klein</t>
   </si>
   <si>
-    <t xml:space="preserve">1998.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Desipramine</t>
   </si>
   <si>
@@ -968,13 +953,13 @@
     <t xml:space="preserve">13 to 18</t>
   </si>
   <si>
-    <t xml:space="preserve">Klein_1998.0_Desipramine_Placebo</t>
+    <t xml:space="preserve">Klein_1998_Desipramine_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">Kutcher</t>
   </si>
   <si>
-    <t xml:space="preserve">1994.0</t>
+    <t xml:space="preserve">1994</t>
   </si>
   <si>
     <t xml:space="preserve">Canada</t>
@@ -983,7 +968,7 @@
     <t xml:space="preserve">15 to 20</t>
   </si>
   <si>
-    <t xml:space="preserve">Kutcher_1994.0_Desipramine_Placebo</t>
+    <t xml:space="preserve">Kutcher_1994_Desipramine_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">Dichotomous outcome variable (well/ill). Final HAM-D score of 7 or less indicated well</t>
@@ -992,7 +977,7 @@
     <t xml:space="preserve">Kye</t>
   </si>
   <si>
-    <t xml:space="preserve">1996.0</t>
+    <t xml:space="preserve">1996</t>
   </si>
   <si>
     <t xml:space="preserve">Amitriptyline</t>
@@ -1001,7 +986,7 @@
     <t xml:space="preserve">50% improvement</t>
   </si>
   <si>
-    <t xml:space="preserve">Kye_1996.0_Amitriptyline_Placebo</t>
+    <t xml:space="preserve">Kye_1996_Amitriptyline_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">Lewinsohn, 1990</t>
@@ -1091,13 +1076,10 @@
     <t xml:space="preserve">March</t>
   </si>
   <si>
-    <t xml:space="preserve">2004.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anxiety, disruptive behaviour, obsessive-compulsice/tic, substance use, attention-deficit/hyperactivity</t>
   </si>
   <si>
-    <t xml:space="preserve">March_2004.0_Fluoxetine_Placebo</t>
+    <t xml:space="preserve">March_2004_Fluoxetine_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">RADS</t>
@@ -1154,19 +1136,19 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Paxil (GlaxoSmithKline)_2009.0_Paroxetine_Placebo</t>
+    <t xml:space="preserve">Paxil (GlaxoSmithKline)_2009_Paroxetine_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">Puig-Antich</t>
   </si>
   <si>
-    <t xml:space="preserve">1987.0</t>
+    <t xml:space="preserve">1987</t>
   </si>
   <si>
     <t xml:space="preserve">Responder: if K-SADS scores in both depressed mood and anhedonia were ≤2. Non-responder: if K-SADS score for at least one of these two key items were ≥3.</t>
   </si>
   <si>
-    <t xml:space="preserve">Puig-Antich_1987.0_Imipramine_Placebo</t>
+    <t xml:space="preserve">Puig-Antich_1987_Imipramine_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">Reynolds, 1986</t>
@@ -1199,9 +1181,6 @@
     <t xml:space="preserve">Rohde, 2014a</t>
   </si>
   <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
     <t xml:space="preserve">cognitive behavioral intervention (CB)</t>
   </si>
   <si>
@@ -1283,9 +1262,6 @@
     <t xml:space="preserve">Stark, 1987</t>
   </si>
   <si>
-    <t xml:space="preserve">1987</t>
-  </si>
-  <si>
     <t xml:space="preserve">pst</t>
   </si>
   <si>
@@ -1397,7 +1373,7 @@
     <t xml:space="preserve">*Ask Charlotte to check paper</t>
   </si>
   <si>
-    <t xml:space="preserve">Von Knorring_2006.0_Citalopram_Placebo</t>
+    <t xml:space="preserve">Von Knorring_2006_Citalopram_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">K-SADS depression and anhedonia scores ≤2</t>
@@ -1406,9 +1382,6 @@
     <t xml:space="preserve">Vostanis, 1996</t>
   </si>
   <si>
-    <t xml:space="preserve">1996</t>
-  </si>
-  <si>
     <t xml:space="preserve">non-focused intervention</t>
   </si>
   <si>
@@ -1421,7 +1394,7 @@
     <t xml:space="preserve">Wagner</t>
   </si>
   <si>
-    <t xml:space="preserve">2003.0</t>
+    <t xml:space="preserve">2003</t>
   </si>
   <si>
     <t xml:space="preserve">Sertraline</t>
@@ -1439,7 +1412,7 @@
     <t xml:space="preserve">6 to 17</t>
   </si>
   <si>
-    <t xml:space="preserve">Wagner_2003.0_Sertraline_Placebo</t>
+    <t xml:space="preserve">Wagner_2003_Sertraline_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">CDRS score ≤28</t>
@@ -1448,19 +1421,16 @@
     <t xml:space="preserve">Dysthmia, enuresis</t>
   </si>
   <si>
-    <t xml:space="preserve">Wagner_2004.0_Citalopram_Placebo</t>
+    <t xml:space="preserve">Wagner_2004_Citalopram_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">Anxiety disorders (e.g. GAD, panic disorder, social phobia, specific phobia)</t>
   </si>
   <si>
-    <t xml:space="preserve">Wagner_2006.0_Escitalopram_Placebo</t>
+    <t xml:space="preserve">Wagner_2006_Escitalopram_Placebo</t>
   </si>
   <si>
     <t xml:space="preserve">Weisz, 1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997</t>
   </si>
   <si>
     <t xml:space="preserve">nt</t>
@@ -3234,30 +3204,78 @@
       <c r="BX7" t="s">
         <v>140</v>
       </c>
-      <c r="BY7"/>
-      <c r="BZ7"/>
-      <c r="CA7"/>
-      <c r="CB7"/>
-      <c r="CC7"/>
-      <c r="CD7"/>
-      <c r="CE7"/>
-      <c r="CF7"/>
-      <c r="CG7"/>
-      <c r="CH7"/>
-      <c r="CI7"/>
-      <c r="CJ7"/>
-      <c r="CK7"/>
-      <c r="CL7"/>
-      <c r="CM7"/>
-      <c r="CN7"/>
-      <c r="CO7"/>
-      <c r="CP7"/>
-      <c r="CQ7"/>
-      <c r="CR7"/>
-      <c r="CS7"/>
-      <c r="CT7"/>
-      <c r="CU7"/>
-      <c r="CV7"/>
+      <c r="BY7" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>113</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>9</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>117</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>76</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>113</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>30</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>117</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>16</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>117</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>103</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>103</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>64</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>103</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>16</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>103</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>15</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>103</v>
+      </c>
       <c r="CW7"/>
       <c r="CX7"/>
     </row>
@@ -3430,30 +3448,78 @@
       <c r="BX8" t="s">
         <v>142</v>
       </c>
-      <c r="BY8"/>
-      <c r="BZ8"/>
-      <c r="CA8"/>
-      <c r="CB8"/>
-      <c r="CC8"/>
-      <c r="CD8"/>
-      <c r="CE8"/>
-      <c r="CF8"/>
-      <c r="CG8"/>
-      <c r="CH8"/>
-      <c r="CI8"/>
-      <c r="CJ8"/>
-      <c r="CK8"/>
-      <c r="CL8"/>
-      <c r="CM8"/>
-      <c r="CN8"/>
-      <c r="CO8"/>
-      <c r="CP8"/>
-      <c r="CQ8"/>
-      <c r="CR8"/>
-      <c r="CS8"/>
-      <c r="CT8"/>
-      <c r="CU8"/>
-      <c r="CV8"/>
+      <c r="BY8" t="n">
+        <v>-23.7</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>113</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>117</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>71</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>113</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>26</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>117</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>18</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>117</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>-24.3</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>103</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>103</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>64</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>103</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>16</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>103</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>15</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>103</v>
+      </c>
       <c r="CW8"/>
       <c r="CX8"/>
     </row>
@@ -3648,30 +3714,78 @@
       <c r="BX9" t="s">
         <v>153</v>
       </c>
-      <c r="BY9"/>
-      <c r="BZ9"/>
-      <c r="CA9"/>
-      <c r="CB9"/>
-      <c r="CC9"/>
-      <c r="CD9"/>
-      <c r="CE9"/>
-      <c r="CF9"/>
-      <c r="CG9"/>
-      <c r="CH9"/>
-      <c r="CI9"/>
-      <c r="CJ9"/>
-      <c r="CK9"/>
-      <c r="CL9"/>
-      <c r="CM9"/>
-      <c r="CN9"/>
-      <c r="CO9"/>
-      <c r="CP9"/>
-      <c r="CQ9"/>
-      <c r="CR9"/>
-      <c r="CS9"/>
-      <c r="CT9"/>
-      <c r="CU9"/>
-      <c r="CV9"/>
+      <c r="BY9" t="n">
+        <v>-13.6</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>177</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>20</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>187</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>107</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>177</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>10</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>60</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>187</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>6</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>187</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>-12.8</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>91</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>7</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>99</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>53</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>91</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>8</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>30</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>99</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>99</v>
+      </c>
       <c r="CW9"/>
       <c r="CX9"/>
     </row>
@@ -9552,30 +9666,78 @@
       <c r="BX40" t="s">
         <v>227</v>
       </c>
-      <c r="BY40"/>
-      <c r="BZ40"/>
-      <c r="CA40"/>
-      <c r="CB40"/>
-      <c r="CC40"/>
-      <c r="CD40"/>
-      <c r="CE40"/>
-      <c r="CF40"/>
-      <c r="CG40"/>
-      <c r="CH40"/>
-      <c r="CI40"/>
-      <c r="CJ40"/>
-      <c r="CK40"/>
-      <c r="CL40"/>
-      <c r="CM40"/>
-      <c r="CN40"/>
-      <c r="CO40"/>
-      <c r="CP40"/>
-      <c r="CQ40"/>
-      <c r="CR40"/>
-      <c r="CS40"/>
-      <c r="CT40"/>
-      <c r="CU40"/>
-      <c r="CV40"/>
+      <c r="BY40" t="n">
+        <v>-20.1</v>
+      </c>
+      <c r="BZ40" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="CA40" t="n">
+        <v>48</v>
+      </c>
+      <c r="CB40" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC40" t="n">
+        <v>48</v>
+      </c>
+      <c r="CD40" t="n">
+        <v>27</v>
+      </c>
+      <c r="CE40" t="n">
+        <v>48</v>
+      </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG40" t="n">
+        <v>14</v>
+      </c>
+      <c r="CH40" t="n">
+        <v>48</v>
+      </c>
+      <c r="CI40" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ40" t="n">
+        <v>48</v>
+      </c>
+      <c r="CK40" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="CL40" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="CM40" t="n">
+        <v>48</v>
+      </c>
+      <c r="CN40" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO40" t="n">
+        <v>48</v>
+      </c>
+      <c r="CP40" t="n">
+        <v>16</v>
+      </c>
+      <c r="CQ40" t="n">
+        <v>48</v>
+      </c>
+      <c r="CR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS40" t="n">
+        <v>22</v>
+      </c>
+      <c r="CT40" t="n">
+        <v>48</v>
+      </c>
+      <c r="CU40" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV40" t="n">
+        <v>48</v>
+      </c>
       <c r="CW40"/>
       <c r="CX40"/>
     </row>
@@ -11296,30 +11458,78 @@
       <c r="BX49" t="s">
         <v>239</v>
       </c>
-      <c r="BY49"/>
-      <c r="BZ49"/>
-      <c r="CA49"/>
-      <c r="CB49"/>
-      <c r="CC49"/>
-      <c r="CD49"/>
-      <c r="CE49"/>
-      <c r="CF49"/>
-      <c r="CG49"/>
-      <c r="CH49"/>
-      <c r="CI49"/>
-      <c r="CJ49"/>
-      <c r="CK49"/>
-      <c r="CL49"/>
-      <c r="CM49"/>
-      <c r="CN49"/>
-      <c r="CO49"/>
-      <c r="CP49"/>
-      <c r="CQ49"/>
-      <c r="CR49"/>
-      <c r="CS49"/>
-      <c r="CT49"/>
-      <c r="CU49"/>
-      <c r="CV49"/>
+      <c r="BY49" t="n">
+        <v>-22.58</v>
+      </c>
+      <c r="BZ49" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="CA49" t="n">
+        <v>101</v>
+      </c>
+      <c r="CB49" t="n">
+        <v>9</v>
+      </c>
+      <c r="CC49" t="n">
+        <v>104</v>
+      </c>
+      <c r="CD49" t="n">
+        <v>49</v>
+      </c>
+      <c r="CE49" t="n">
+        <v>101</v>
+      </c>
+      <c r="CF49" t="n">
+        <v>3</v>
+      </c>
+      <c r="CG49" t="n">
+        <v>34</v>
+      </c>
+      <c r="CH49" t="n">
+        <v>104</v>
+      </c>
+      <c r="CI49" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ49" t="n">
+        <v>104</v>
+      </c>
+      <c r="CK49" t="n">
+        <v>-23.38</v>
+      </c>
+      <c r="CL49" t="n">
+        <v>16</v>
+      </c>
+      <c r="CM49" t="n">
+        <v>100</v>
+      </c>
+      <c r="CN49" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO49" t="n">
+        <v>102</v>
+      </c>
+      <c r="CP49" t="n">
+        <v>46</v>
+      </c>
+      <c r="CQ49" t="n">
+        <v>100</v>
+      </c>
+      <c r="CR49" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS49" t="n">
+        <v>23</v>
+      </c>
+      <c r="CT49" t="n">
+        <v>102</v>
+      </c>
+      <c r="CU49" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV49" t="n">
+        <v>102</v>
+      </c>
       <c r="CW49"/>
       <c r="CX49"/>
     </row>
@@ -11984,10 +12194,10 @@
         <v>224</v>
       </c>
       <c r="D53" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" t="s">
         <v>248</v>
-      </c>
-      <c r="E53" t="s">
-        <v>249</v>
       </c>
       <c r="F53" t="s">
         <v>133</v>
@@ -12060,7 +12270,7 @@
         <v>157</v>
       </c>
       <c r="AF53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG53" t="n">
         <v>91</v>
@@ -12103,7 +12313,7 @@
         <v>149</v>
       </c>
       <c r="BC53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BD53" t="s">
         <v>137</v>
@@ -12135,7 +12345,7 @@
         <v>139</v>
       </c>
       <c r="BO53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BP53"/>
       <c r="BQ53" t="n">
@@ -12160,32 +12370,80 @@
         <v>-2.273276904474</v>
       </c>
       <c r="BX53" t="s">
-        <v>253</v>
-      </c>
-      <c r="BY53"/>
-      <c r="BZ53"/>
-      <c r="CA53"/>
-      <c r="CB53"/>
-      <c r="CC53"/>
-      <c r="CD53"/>
-      <c r="CE53"/>
-      <c r="CF53"/>
-      <c r="CG53"/>
-      <c r="CH53"/>
-      <c r="CI53"/>
-      <c r="CJ53"/>
-      <c r="CK53"/>
-      <c r="CL53"/>
-      <c r="CM53"/>
-      <c r="CN53"/>
-      <c r="CO53"/>
-      <c r="CP53"/>
-      <c r="CQ53"/>
-      <c r="CR53"/>
-      <c r="CS53"/>
-      <c r="CT53"/>
-      <c r="CU53"/>
-      <c r="CV53"/>
+        <v>252</v>
+      </c>
+      <c r="BY53" t="n">
+        <v>-22.1</v>
+      </c>
+      <c r="BZ53" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="CA53" t="n">
+        <v>154</v>
+      </c>
+      <c r="CB53" t="n">
+        <v>4</v>
+      </c>
+      <c r="CC53" t="n">
+        <v>158</v>
+      </c>
+      <c r="CD53" t="n">
+        <v>99</v>
+      </c>
+      <c r="CE53" t="n">
+        <v>154</v>
+      </c>
+      <c r="CF53" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG53" t="n">
+        <v>32</v>
+      </c>
+      <c r="CH53" t="n">
+        <v>158</v>
+      </c>
+      <c r="CI53" t="n">
+        <v>14</v>
+      </c>
+      <c r="CJ53" t="n">
+        <v>158</v>
+      </c>
+      <c r="CK53" t="n">
+        <v>-18.8</v>
+      </c>
+      <c r="CL53" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="CM53" t="n">
+        <v>157</v>
+      </c>
+      <c r="CN53" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO53" t="n">
+        <v>158</v>
+      </c>
+      <c r="CP53" t="n">
+        <v>83</v>
+      </c>
+      <c r="CQ53" t="n">
+        <v>157</v>
+      </c>
+      <c r="CR53" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS53" t="n">
+        <v>25</v>
+      </c>
+      <c r="CT53" t="n">
+        <v>158</v>
+      </c>
+      <c r="CU53" t="n">
+        <v>15</v>
+      </c>
+      <c r="CV53" t="n">
+        <v>158</v>
+      </c>
       <c r="CW53"/>
       <c r="CX53"/>
     </row>
@@ -12200,10 +12458,10 @@
         <v>224</v>
       </c>
       <c r="D54" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" t="s">
         <v>248</v>
-      </c>
-      <c r="E54" t="s">
-        <v>249</v>
       </c>
       <c r="F54" t="s">
         <v>133</v>
@@ -12285,7 +12543,7 @@
         <v>149</v>
       </c>
       <c r="BC54" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BD54" t="s">
         <v>137</v>
@@ -12326,7 +12584,7 @@
       <c r="BV54"/>
       <c r="BW54"/>
       <c r="BX54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BY54"/>
       <c r="BZ54"/>
@@ -12442,7 +12700,7 @@
         <v>117</v>
       </c>
       <c r="AF55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG55"/>
       <c r="AH55"/>
@@ -12478,7 +12736,7 @@
       </c>
       <c r="BC55"/>
       <c r="BD55" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BE55" t="s">
         <v>138</v>
@@ -12507,7 +12765,7 @@
         <v>139</v>
       </c>
       <c r="BO55" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BP55"/>
       <c r="BQ55" t="n">
@@ -12532,32 +12790,80 @@
         <v>-2.21276595744681</v>
       </c>
       <c r="BX55" t="s">
-        <v>257</v>
-      </c>
-      <c r="BY55"/>
-      <c r="BZ55"/>
-      <c r="CA55"/>
-      <c r="CB55"/>
-      <c r="CC55"/>
-      <c r="CD55"/>
-      <c r="CE55"/>
-      <c r="CF55"/>
-      <c r="CG55"/>
-      <c r="CH55"/>
-      <c r="CI55"/>
-      <c r="CJ55"/>
-      <c r="CK55"/>
-      <c r="CL55"/>
-      <c r="CM55"/>
-      <c r="CN55"/>
-      <c r="CO55"/>
-      <c r="CP55"/>
-      <c r="CQ55"/>
-      <c r="CR55"/>
-      <c r="CS55"/>
-      <c r="CT55"/>
-      <c r="CU55"/>
-      <c r="CV55"/>
+        <v>256</v>
+      </c>
+      <c r="BY55" t="n">
+        <v>-24.26</v>
+      </c>
+      <c r="BZ55" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="CA55" t="n">
+        <v>219</v>
+      </c>
+      <c r="CB55" t="n">
+        <v>19</v>
+      </c>
+      <c r="CC55" t="n">
+        <v>224</v>
+      </c>
+      <c r="CD55" t="n">
+        <v>151</v>
+      </c>
+      <c r="CE55" t="n">
+        <v>219</v>
+      </c>
+      <c r="CF55" t="n">
+        <v>5</v>
+      </c>
+      <c r="CG55" t="n">
+        <v>68</v>
+      </c>
+      <c r="CH55" t="n">
+        <v>224</v>
+      </c>
+      <c r="CI55" t="n">
+        <v>28</v>
+      </c>
+      <c r="CJ55" t="n">
+        <v>224</v>
+      </c>
+      <c r="CK55" t="n">
+        <v>-21.6</v>
+      </c>
+      <c r="CL55" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="CM55" t="n">
+        <v>117</v>
+      </c>
+      <c r="CN55" t="n">
+        <v>4</v>
+      </c>
+      <c r="CO55" t="n">
+        <v>122</v>
+      </c>
+      <c r="CP55" t="n">
+        <v>70</v>
+      </c>
+      <c r="CQ55" t="n">
+        <v>117</v>
+      </c>
+      <c r="CR55" t="n">
+        <v>5</v>
+      </c>
+      <c r="CS55" t="n">
+        <v>37</v>
+      </c>
+      <c r="CT55" t="n">
+        <v>122</v>
+      </c>
+      <c r="CU55" t="n">
+        <v>17</v>
+      </c>
+      <c r="CV55" t="n">
+        <v>122</v>
+      </c>
       <c r="CW55"/>
       <c r="CX55"/>
     </row>
@@ -12648,7 +12954,7 @@
         <v>117</v>
       </c>
       <c r="AF56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG56"/>
       <c r="AH56"/>
@@ -12684,7 +12990,7 @@
       </c>
       <c r="BC56"/>
       <c r="BD56" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BE56" t="s">
         <v>138</v>
@@ -12736,32 +13042,80 @@
         <v>-2.21276595744681</v>
       </c>
       <c r="BX56" t="s">
-        <v>257</v>
-      </c>
-      <c r="BY56"/>
-      <c r="BZ56"/>
-      <c r="CA56"/>
-      <c r="CB56"/>
-      <c r="CC56"/>
-      <c r="CD56"/>
-      <c r="CE56"/>
-      <c r="CF56"/>
-      <c r="CG56"/>
-      <c r="CH56"/>
-      <c r="CI56"/>
-      <c r="CJ56"/>
-      <c r="CK56"/>
-      <c r="CL56"/>
-      <c r="CM56"/>
-      <c r="CN56"/>
-      <c r="CO56"/>
-      <c r="CP56"/>
-      <c r="CQ56"/>
-      <c r="CR56"/>
-      <c r="CS56"/>
-      <c r="CT56"/>
-      <c r="CU56"/>
-      <c r="CV56"/>
+        <v>256</v>
+      </c>
+      <c r="BY56" t="n">
+        <v>-24.26</v>
+      </c>
+      <c r="BZ56" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="CA56" t="n">
+        <v>219</v>
+      </c>
+      <c r="CB56" t="n">
+        <v>19</v>
+      </c>
+      <c r="CC56" t="n">
+        <v>224</v>
+      </c>
+      <c r="CD56" t="n">
+        <v>151</v>
+      </c>
+      <c r="CE56" t="n">
+        <v>219</v>
+      </c>
+      <c r="CF56" t="n">
+        <v>5</v>
+      </c>
+      <c r="CG56" t="n">
+        <v>68</v>
+      </c>
+      <c r="CH56" t="n">
+        <v>224</v>
+      </c>
+      <c r="CI56" t="n">
+        <v>28</v>
+      </c>
+      <c r="CJ56" t="n">
+        <v>224</v>
+      </c>
+      <c r="CK56" t="n">
+        <v>-21.6</v>
+      </c>
+      <c r="CL56" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="CM56" t="n">
+        <v>117</v>
+      </c>
+      <c r="CN56" t="n">
+        <v>4</v>
+      </c>
+      <c r="CO56" t="n">
+        <v>122</v>
+      </c>
+      <c r="CP56" t="n">
+        <v>70</v>
+      </c>
+      <c r="CQ56" t="n">
+        <v>117</v>
+      </c>
+      <c r="CR56" t="n">
+        <v>5</v>
+      </c>
+      <c r="CS56" t="n">
+        <v>37</v>
+      </c>
+      <c r="CT56" t="n">
+        <v>122</v>
+      </c>
+      <c r="CU56" t="n">
+        <v>17</v>
+      </c>
+      <c r="CV56" t="n">
+        <v>122</v>
+      </c>
       <c r="CW56"/>
       <c r="CX56"/>
     </row>
@@ -12852,7 +13206,7 @@
         <v>117</v>
       </c>
       <c r="AF57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG57"/>
       <c r="AH57"/>
@@ -12888,7 +13242,7 @@
       </c>
       <c r="BC57"/>
       <c r="BD57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BE57" t="s">
         <v>138</v>
@@ -12940,32 +13294,80 @@
         <v>-2.21276595744681</v>
       </c>
       <c r="BX57" t="s">
-        <v>258</v>
-      </c>
-      <c r="BY57"/>
-      <c r="BZ57"/>
-      <c r="CA57"/>
-      <c r="CB57"/>
-      <c r="CC57"/>
-      <c r="CD57"/>
-      <c r="CE57"/>
-      <c r="CF57"/>
-      <c r="CG57"/>
-      <c r="CH57"/>
-      <c r="CI57"/>
-      <c r="CJ57"/>
-      <c r="CK57"/>
-      <c r="CL57"/>
-      <c r="CM57"/>
-      <c r="CN57"/>
-      <c r="CO57"/>
-      <c r="CP57"/>
-      <c r="CQ57"/>
-      <c r="CR57"/>
-      <c r="CS57"/>
-      <c r="CT57"/>
-      <c r="CU57"/>
-      <c r="CV57"/>
+        <v>257</v>
+      </c>
+      <c r="BY57" t="n">
+        <v>-22.6</v>
+      </c>
+      <c r="BZ57" t="n">
+        <v>13.44</v>
+      </c>
+      <c r="CA57" t="n">
+        <v>112</v>
+      </c>
+      <c r="CB57" t="n">
+        <v>6</v>
+      </c>
+      <c r="CC57" t="n">
+        <v>117</v>
+      </c>
+      <c r="CD57" t="n">
+        <v>68</v>
+      </c>
+      <c r="CE57" t="n">
+        <v>112</v>
+      </c>
+      <c r="CF57" t="n">
+        <v>5</v>
+      </c>
+      <c r="CG57" t="n">
+        <v>33</v>
+      </c>
+      <c r="CH57" t="n">
+        <v>117</v>
+      </c>
+      <c r="CI57" t="n">
+        <v>15</v>
+      </c>
+      <c r="CJ57" t="n">
+        <v>117</v>
+      </c>
+      <c r="CK57" t="n">
+        <v>-21.6</v>
+      </c>
+      <c r="CL57" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="CM57" t="n">
+        <v>117</v>
+      </c>
+      <c r="CN57" t="n">
+        <v>4</v>
+      </c>
+      <c r="CO57" t="n">
+        <v>122</v>
+      </c>
+      <c r="CP57" t="n">
+        <v>70</v>
+      </c>
+      <c r="CQ57" t="n">
+        <v>117</v>
+      </c>
+      <c r="CR57" t="n">
+        <v>5</v>
+      </c>
+      <c r="CS57" t="n">
+        <v>37</v>
+      </c>
+      <c r="CT57" t="n">
+        <v>122</v>
+      </c>
+      <c r="CU57" t="n">
+        <v>17</v>
+      </c>
+      <c r="CV57" t="n">
+        <v>122</v>
+      </c>
       <c r="CW57"/>
       <c r="CX57"/>
     </row>
@@ -12975,10 +13377,10 @@
         <v>31</v>
       </c>
       <c r="C58" t="s">
+        <v>258</v>
+      </c>
+      <c r="D58" t="s">
         <v>259</v>
-      </c>
-      <c r="D58" t="s">
-        <v>260</v>
       </c>
       <c r="E58" t="s">
         <v>104</v>
@@ -13114,7 +13516,7 @@
       </c>
       <c r="BO58"/>
       <c r="BP58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BQ58"/>
       <c r="BR58"/>
@@ -13130,7 +13532,7 @@
         <v>-1.31578947368421</v>
       </c>
       <c r="BX58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BY58"/>
       <c r="BZ58"/>
@@ -13171,10 +13573,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D59" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="E59" t="s">
         <v>141</v>
@@ -13254,7 +13656,7 @@
         <v>16</v>
       </c>
       <c r="AF59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG59"/>
       <c r="AH59"/>
@@ -13311,7 +13713,7 @@
         <v>149</v>
       </c>
       <c r="BC59" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BD59" t="s">
         <v>137</v>
@@ -13370,30 +13772,70 @@
         <v>-1.92431972789116</v>
       </c>
       <c r="BX59" t="s">
-        <v>266</v>
-      </c>
-      <c r="BY59"/>
-      <c r="BZ59"/>
-      <c r="CA59"/>
-      <c r="CB59"/>
-      <c r="CC59"/>
-      <c r="CD59"/>
-      <c r="CE59"/>
-      <c r="CF59"/>
-      <c r="CG59"/>
-      <c r="CH59"/>
+        <v>265</v>
+      </c>
+      <c r="BY59" t="n">
+        <v>-18.4</v>
+      </c>
+      <c r="BZ59" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="CA59" t="n">
+        <v>18</v>
+      </c>
+      <c r="CB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC59" t="n">
+        <v>18</v>
+      </c>
+      <c r="CD59" t="n">
+        <v>9</v>
+      </c>
+      <c r="CE59" t="n">
+        <v>18</v>
+      </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG59" t="n">
+        <v>6</v>
+      </c>
+      <c r="CH59" t="n">
+        <v>18</v>
+      </c>
       <c r="CI59"/>
       <c r="CJ59"/>
-      <c r="CK59"/>
-      <c r="CL59"/>
-      <c r="CM59"/>
-      <c r="CN59"/>
-      <c r="CO59"/>
-      <c r="CP59"/>
-      <c r="CQ59"/>
-      <c r="CR59"/>
-      <c r="CS59"/>
-      <c r="CT59"/>
+      <c r="CK59" t="n">
+        <v>-22.63</v>
+      </c>
+      <c r="CL59" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="CM59" t="n">
+        <v>16</v>
+      </c>
+      <c r="CN59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO59" t="n">
+        <v>16</v>
+      </c>
+      <c r="CP59" t="n">
+        <v>6</v>
+      </c>
+      <c r="CQ59" t="n">
+        <v>16</v>
+      </c>
+      <c r="CR59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS59" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT59" t="n">
+        <v>16</v>
+      </c>
       <c r="CU59"/>
       <c r="CV59"/>
       <c r="CW59"/>
@@ -13407,10 +13849,10 @@
         <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D60" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="E60" t="s">
         <v>141</v>
@@ -13539,7 +13981,7 @@
         <v>149</v>
       </c>
       <c r="BC60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BD60" t="s">
         <v>137</v>
@@ -13598,7 +14040,7 @@
         <v>-0.466316292403249</v>
       </c>
       <c r="BX60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BY60"/>
       <c r="BZ60"/>
@@ -13635,10 +14077,10 @@
         <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D61" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="E61" t="s">
         <v>141</v>
@@ -13723,7 +14165,7 @@
         <v>149</v>
       </c>
       <c r="BC61" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BD61" t="s">
         <v>137</v>
@@ -13772,7 +14214,7 @@
       <c r="BV61"/>
       <c r="BW61"/>
       <c r="BX61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BY61"/>
       <c r="BZ61"/>
@@ -13807,10 +14249,10 @@
         <v>32</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E62" t="s">
         <v>104</v>
@@ -13822,13 +14264,13 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
+        <v>267</v>
+      </c>
+      <c r="I62" t="s">
         <v>268</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>269</v>
-      </c>
-      <c r="J62" t="s">
-        <v>270</v>
       </c>
       <c r="K62" t="s">
         <v>135</v>
@@ -13972,7 +14414,7 @@
         <v>-1.08333333333333</v>
       </c>
       <c r="BX62" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="BY62"/>
       <c r="BZ62"/>
@@ -14013,13 +14455,13 @@
         <v>37</v>
       </c>
       <c r="C63" t="s">
+        <v>271</v>
+      </c>
+      <c r="D63" t="s">
         <v>272</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>273</v>
-      </c>
-      <c r="E63" t="s">
-        <v>274</v>
       </c>
       <c r="F63" t="s">
         <v>133</v>
@@ -14084,7 +14526,7 @@
       <c r="AD63"/>
       <c r="AE63"/>
       <c r="AF63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG63" t="n">
         <v>1</v>
@@ -14147,7 +14589,7 @@
         <v>149</v>
       </c>
       <c r="BC63" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BD63" t="s">
         <v>137</v>
@@ -14206,28 +14648,52 @@
         <v>-2.28125</v>
       </c>
       <c r="BX63" t="s">
-        <v>277</v>
-      </c>
-      <c r="BY63"/>
-      <c r="BZ63"/>
-      <c r="CA63"/>
+        <v>276</v>
+      </c>
+      <c r="BY63" t="n">
+        <v>-16.6</v>
+      </c>
+      <c r="BZ63" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="CA63" t="n">
+        <v>12</v>
+      </c>
       <c r="CB63"/>
       <c r="CC63"/>
-      <c r="CD63"/>
-      <c r="CE63"/>
-      <c r="CF63"/>
+      <c r="CD63" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE63" t="n">
+        <v>12</v>
+      </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
       <c r="CG63"/>
       <c r="CH63"/>
       <c r="CI63"/>
       <c r="CJ63"/>
-      <c r="CK63"/>
-      <c r="CL63"/>
-      <c r="CM63"/>
+      <c r="CK63" t="n">
+        <v>-13.6</v>
+      </c>
+      <c r="CL63" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="CM63" t="n">
+        <v>19</v>
+      </c>
       <c r="CN63"/>
       <c r="CO63"/>
-      <c r="CP63"/>
-      <c r="CQ63"/>
-      <c r="CR63"/>
+      <c r="CP63" t="n">
+        <v>4</v>
+      </c>
+      <c r="CQ63" t="n">
+        <v>19</v>
+      </c>
+      <c r="CR63" t="n">
+        <v>0</v>
+      </c>
       <c r="CS63"/>
       <c r="CT63"/>
       <c r="CU63"/>
@@ -14243,13 +14709,13 @@
         <v>36</v>
       </c>
       <c r="C64" t="s">
+        <v>271</v>
+      </c>
+      <c r="D64" t="s">
         <v>272</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>273</v>
-      </c>
-      <c r="E64" t="s">
-        <v>274</v>
       </c>
       <c r="F64" t="s">
         <v>133</v>
@@ -14260,10 +14726,10 @@
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64" t="s">
+        <v>277</v>
+      </c>
+      <c r="K64" t="s">
         <v>278</v>
-      </c>
-      <c r="K64" t="s">
-        <v>279</v>
       </c>
       <c r="L64" t="n">
         <v>99</v>
@@ -14363,7 +14829,7 @@
         <v>149</v>
       </c>
       <c r="BC64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="BD64" t="s">
         <v>137</v>
@@ -14422,7 +14888,7 @@
         <v>1.02487562189055</v>
       </c>
       <c r="BX64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="BY64"/>
       <c r="BZ64"/>
@@ -14459,13 +14925,13 @@
         <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F65" t="s">
         <v>133</v>
@@ -14530,7 +14996,7 @@
       <c r="AD65"/>
       <c r="AE65"/>
       <c r="AF65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG65" t="n">
         <v>8</v>
@@ -14597,7 +15063,7 @@
         <v>137</v>
       </c>
       <c r="BE65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BF65" t="n">
         <v>9.7</v>
@@ -14650,30 +15116,62 @@
         <v>-2.44444444444444</v>
       </c>
       <c r="BX65" t="s">
-        <v>283</v>
-      </c>
-      <c r="BY65"/>
-      <c r="BZ65"/>
-      <c r="CA65"/>
+        <v>282</v>
+      </c>
+      <c r="BY65" t="n">
+        <v>-17</v>
+      </c>
+      <c r="BZ65" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="CA65" t="n">
+        <v>26</v>
+      </c>
       <c r="CB65"/>
       <c r="CC65"/>
-      <c r="CD65"/>
-      <c r="CE65"/>
-      <c r="CF65"/>
-      <c r="CG65"/>
-      <c r="CH65"/>
+      <c r="CD65" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE65" t="n">
+        <v>26</v>
+      </c>
+      <c r="CF65" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG65" t="n">
+        <v>4</v>
+      </c>
+      <c r="CH65" t="n">
+        <v>30</v>
+      </c>
       <c r="CI65"/>
       <c r="CJ65"/>
-      <c r="CK65"/>
-      <c r="CL65"/>
-      <c r="CM65"/>
+      <c r="CK65" t="n">
+        <v>-17.6</v>
+      </c>
+      <c r="CL65" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="CM65" t="n">
+        <v>24</v>
+      </c>
       <c r="CN65"/>
       <c r="CO65"/>
-      <c r="CP65"/>
-      <c r="CQ65"/>
-      <c r="CR65"/>
-      <c r="CS65"/>
-      <c r="CT65"/>
+      <c r="CP65" t="n">
+        <v>4</v>
+      </c>
+      <c r="CQ65" t="n">
+        <v>24</v>
+      </c>
+      <c r="CR65" t="n">
+        <v>6</v>
+      </c>
+      <c r="CS65" t="n">
+        <v>6</v>
+      </c>
+      <c r="CT65" t="n">
+        <v>30</v>
+      </c>
       <c r="CU65"/>
       <c r="CV65"/>
       <c r="CW65"/>
@@ -14687,13 +15185,13 @@
         <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E66" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F66" t="s">
         <v>133</v>
@@ -14758,7 +15256,7 @@
       <c r="AD66"/>
       <c r="AE66"/>
       <c r="AF66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG66" t="n">
         <v>12</v>
@@ -14825,7 +15323,7 @@
         <v>137</v>
       </c>
       <c r="BE66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BF66" t="n">
         <v>9.7</v>
@@ -14878,7 +15376,7 @@
         <v>-2.640625</v>
       </c>
       <c r="BX66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BY66"/>
       <c r="BZ66"/>
@@ -14913,10 +15411,10 @@
         <v>33</v>
       </c>
       <c r="C67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D67" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="E67" t="s">
         <v>104</v>
@@ -15066,7 +15564,7 @@
         <v>-0.159256801592568</v>
       </c>
       <c r="BX67" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="BY67"/>
       <c r="BZ67"/>
@@ -15107,13 +15605,13 @@
         <v>40</v>
       </c>
       <c r="C68" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E68" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F68" t="s">
         <v>133</v>
@@ -15162,7 +15660,7 @@
       <c r="AD68"/>
       <c r="AE68"/>
       <c r="AF68" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AG68" t="n">
         <v>4</v>
@@ -15203,11 +15701,11 @@
         <v>149</v>
       </c>
       <c r="BC68" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BD68"/>
       <c r="BE68" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BF68"/>
       <c r="BG68"/>
@@ -15230,16 +15728,22 @@
       <c r="BV68"/>
       <c r="BW68"/>
       <c r="BX68" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BY68"/>
       <c r="BZ68"/>
       <c r="CA68"/>
       <c r="CB68"/>
       <c r="CC68"/>
-      <c r="CD68"/>
-      <c r="CE68"/>
-      <c r="CF68"/>
+      <c r="CD68" t="n">
+        <v>6</v>
+      </c>
+      <c r="CE68" t="n">
+        <v>13</v>
+      </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
       <c r="CG68"/>
       <c r="CH68"/>
       <c r="CI68"/>
@@ -15249,9 +15753,15 @@
       <c r="CM68"/>
       <c r="CN68"/>
       <c r="CO68"/>
-      <c r="CP68"/>
-      <c r="CQ68"/>
-      <c r="CR68"/>
+      <c r="CP68" t="n">
+        <v>7</v>
+      </c>
+      <c r="CQ68" t="n">
+        <v>14</v>
+      </c>
+      <c r="CR68" t="n">
+        <v>0</v>
+      </c>
       <c r="CS68"/>
       <c r="CT68"/>
       <c r="CU68"/>
@@ -15267,13 +15777,13 @@
         <v>41</v>
       </c>
       <c r="C69" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E69" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F69" t="s">
         <v>133</v>
@@ -15322,7 +15832,7 @@
       <c r="AD69"/>
       <c r="AE69"/>
       <c r="AF69" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AG69" t="n">
         <v>2</v>
@@ -15363,11 +15873,11 @@
         <v>149</v>
       </c>
       <c r="BC69" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BD69"/>
       <c r="BE69" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BF69"/>
       <c r="BG69"/>
@@ -15390,16 +15900,22 @@
       <c r="BV69"/>
       <c r="BW69"/>
       <c r="BX69" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BY69"/>
       <c r="BZ69"/>
       <c r="CA69"/>
       <c r="CB69"/>
       <c r="CC69"/>
-      <c r="CD69"/>
-      <c r="CE69"/>
-      <c r="CF69"/>
+      <c r="CD69" t="n">
+        <v>6</v>
+      </c>
+      <c r="CE69" t="n">
+        <v>13</v>
+      </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
       <c r="CG69"/>
       <c r="CH69"/>
       <c r="CI69"/>
@@ -15409,9 +15925,15 @@
       <c r="CM69"/>
       <c r="CN69"/>
       <c r="CO69"/>
-      <c r="CP69"/>
-      <c r="CQ69"/>
-      <c r="CR69"/>
+      <c r="CP69" t="n">
+        <v>7</v>
+      </c>
+      <c r="CQ69" t="n">
+        <v>14</v>
+      </c>
+      <c r="CR69" t="n">
+        <v>0</v>
+      </c>
       <c r="CS69"/>
       <c r="CT69"/>
       <c r="CU69"/>
@@ -15425,10 +15947,10 @@
         <v>34</v>
       </c>
       <c r="C70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D70" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E70" t="s">
         <v>104</v>
@@ -15582,7 +16104,7 @@
         <v>-0.239766081871345</v>
       </c>
       <c r="BX70" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BY70"/>
       <c r="BZ70"/>
@@ -15621,10 +16143,10 @@
         <v>35</v>
       </c>
       <c r="C71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D71" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E71" t="s">
         <v>214</v>
@@ -15778,7 +16300,7 @@
         <v>-0.0560747663551403</v>
       </c>
       <c r="BX71" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BY71"/>
       <c r="BZ71"/>
@@ -15817,10 +16339,10 @@
         <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D72" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E72" t="s">
         <v>214</v>
@@ -15970,7 +16492,7 @@
         <v>0.15</v>
       </c>
       <c r="BX72" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BY72"/>
       <c r="BZ72"/>
@@ -16009,10 +16531,10 @@
         <v>43</v>
       </c>
       <c r="C73" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D73" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E73" t="s">
         <v>104</v>
@@ -16027,7 +16549,7 @@
         <v>104</v>
       </c>
       <c r="I73" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J73" t="s">
         <v>114</v>
@@ -16158,7 +16680,7 @@
         <v>-1.30547818012999</v>
       </c>
       <c r="BX73" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="BY73"/>
       <c r="BZ73"/>
@@ -16197,10 +16719,10 @@
         <v>44</v>
       </c>
       <c r="C74" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D74" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E74" t="s">
         <v>104</v>
@@ -16215,13 +16737,13 @@
         <v>104</v>
       </c>
       <c r="I74" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J74" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K74" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L74" t="n">
         <v>8</v>
@@ -16346,7 +16868,7 @@
         <v>-1.89427697684578</v>
       </c>
       <c r="BX74" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="BY74"/>
       <c r="BZ74"/>
@@ -16385,10 +16907,10 @@
         <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D75" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E75" t="s">
         <v>104</v>
@@ -16403,13 +16925,13 @@
         <v>104</v>
       </c>
       <c r="I75" t="s">
+        <v>297</v>
+      </c>
+      <c r="J75" t="s">
         <v>300</v>
       </c>
-      <c r="J75" t="s">
-        <v>303</v>
-      </c>
       <c r="K75" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L75" t="n">
         <v>9</v>
@@ -16534,7 +17056,7 @@
         <v>-1.05829596412556</v>
       </c>
       <c r="BX75" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="BY75"/>
       <c r="BZ75"/>
@@ -16573,10 +17095,10 @@
         <v>37</v>
       </c>
       <c r="C76" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D76" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E76" t="s">
         <v>104</v>
@@ -16726,7 +17248,7 @@
         <v>-0.0890302066772653</v>
       </c>
       <c r="BX76" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="BY76"/>
       <c r="BZ76"/>
@@ -16765,10 +17287,10 @@
         <v>38</v>
       </c>
       <c r="C77" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D77" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E77" t="s">
         <v>104</v>
@@ -16786,10 +17308,10 @@
         <v>106</v>
       </c>
       <c r="J77" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K77" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L77" t="n">
         <v>8</v>
@@ -16914,7 +17436,7 @@
         <v>-0.433251433251433</v>
       </c>
       <c r="BX77" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="BY77"/>
       <c r="BZ77"/>
@@ -16953,10 +17475,10 @@
         <v>39</v>
       </c>
       <c r="C78" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D78" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E78" t="s">
         <v>104</v>
@@ -16974,10 +17496,10 @@
         <v>106</v>
       </c>
       <c r="J78" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K78" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L78" t="n">
         <v>9</v>
@@ -17102,7 +17624,7 @@
         <v>-0.867151354923992</v>
       </c>
       <c r="BX78" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="BY78"/>
       <c r="BZ78"/>
@@ -17141,10 +17663,10 @@
         <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D79" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E79" t="s">
         <v>214</v>
@@ -17156,7 +17678,7 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I79" t="s">
         <v>106</v>
@@ -17294,7 +17816,7 @@
         <v>-0.0890302066772653</v>
       </c>
       <c r="BX79" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="BY79"/>
       <c r="BZ79"/>
@@ -17333,10 +17855,10 @@
         <v>41</v>
       </c>
       <c r="C80" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D80" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E80" t="s">
         <v>214</v>
@@ -17348,16 +17870,16 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I80" t="s">
         <v>106</v>
       </c>
       <c r="J80" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K80" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L80" t="n">
         <v>8</v>
@@ -17482,7 +18004,7 @@
         <v>-0.433251433251433</v>
       </c>
       <c r="BX80" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="BY80"/>
       <c r="BZ80"/>
@@ -17521,10 +18043,10 @@
         <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D81" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E81" t="s">
         <v>214</v>
@@ -17536,16 +18058,16 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I81" t="s">
         <v>106</v>
       </c>
       <c r="J81" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K81" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L81" t="n">
         <v>9</v>
@@ -17670,7 +18192,7 @@
         <v>-0.867151354923992</v>
       </c>
       <c r="BX81" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="BY81"/>
       <c r="BZ81"/>
@@ -17711,13 +18233,13 @@
         <v>45</v>
       </c>
       <c r="C82" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D82" t="s">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="E82" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F82" t="s">
         <v>133</v>
@@ -17845,13 +18367,13 @@
         <v>149</v>
       </c>
       <c r="BC82" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BD82" t="s">
         <v>237</v>
       </c>
       <c r="BE82" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="BF82" t="n">
         <v>14.9</v>
@@ -17900,32 +18422,80 @@
         <v>-1.53547297297297</v>
       </c>
       <c r="BX82" t="s">
-        <v>311</v>
-      </c>
-      <c r="BY82"/>
-      <c r="BZ82"/>
-      <c r="CA82"/>
-      <c r="CB82"/>
-      <c r="CC82"/>
-      <c r="CD82"/>
-      <c r="CE82"/>
-      <c r="CF82"/>
-      <c r="CG82"/>
-      <c r="CH82"/>
-      <c r="CI82"/>
-      <c r="CJ82"/>
-      <c r="CK82"/>
-      <c r="CL82"/>
-      <c r="CM82"/>
-      <c r="CN82"/>
-      <c r="CO82"/>
-      <c r="CP82"/>
-      <c r="CQ82"/>
-      <c r="CR82"/>
-      <c r="CS82"/>
-      <c r="CT82"/>
-      <c r="CU82"/>
-      <c r="CV82"/>
+        <v>307</v>
+      </c>
+      <c r="BY82" t="n">
+        <v>-8.91</v>
+      </c>
+      <c r="BZ82" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="CA82" t="n">
+        <v>94</v>
+      </c>
+      <c r="CB82" t="n">
+        <v>30</v>
+      </c>
+      <c r="CC82" t="n">
+        <v>95</v>
+      </c>
+      <c r="CD82" t="n">
+        <v>49</v>
+      </c>
+      <c r="CE82" t="n">
+        <v>94</v>
+      </c>
+      <c r="CF82" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG82" t="n">
+        <v>38</v>
+      </c>
+      <c r="CH82" t="n">
+        <v>95</v>
+      </c>
+      <c r="CI82" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ82" t="n">
+        <v>95</v>
+      </c>
+      <c r="CK82" t="n">
+        <v>-9.09</v>
+      </c>
+      <c r="CL82" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="CM82" t="n">
+        <v>87</v>
+      </c>
+      <c r="CN82" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO82" t="n">
+        <v>87</v>
+      </c>
+      <c r="CP82" t="n">
+        <v>42</v>
+      </c>
+      <c r="CQ82" t="n">
+        <v>87</v>
+      </c>
+      <c r="CR82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS82" t="n">
+        <v>21</v>
+      </c>
+      <c r="CT82" t="n">
+        <v>87</v>
+      </c>
+      <c r="CU82" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV82" t="n">
+        <v>87</v>
+      </c>
       <c r="CW82"/>
       <c r="CX82"/>
     </row>
@@ -17937,13 +18507,13 @@
         <v>46</v>
       </c>
       <c r="C83" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D83" t="s">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="E83" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F83" t="s">
         <v>133</v>
@@ -18057,13 +18627,13 @@
         <v>149</v>
       </c>
       <c r="BC83" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BD83" t="s">
         <v>237</v>
       </c>
       <c r="BE83" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="BF83" t="n">
         <v>14.9</v>
@@ -18112,7 +18682,7 @@
         <v>-1.5312</v>
       </c>
       <c r="BX83" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="BY83"/>
       <c r="BZ83"/>
@@ -18149,13 +18719,13 @@
         <v>47</v>
       </c>
       <c r="C84" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D84" t="s">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="E84" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F84" t="s">
         <v>133</v>
@@ -18237,13 +18807,13 @@
         <v>149</v>
       </c>
       <c r="BC84" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BD84" t="s">
         <v>237</v>
       </c>
       <c r="BE84" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="BF84" t="n">
         <v>14.9</v>
@@ -18278,7 +18848,7 @@
       <c r="BV84"/>
       <c r="BW84"/>
       <c r="BX84" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="BY84"/>
       <c r="BZ84"/>
@@ -18315,10 +18885,10 @@
         <v>42</v>
       </c>
       <c r="C85" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D85" t="s">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="E85" t="s">
         <v>145</v>
@@ -18449,13 +19019,13 @@
         <v>149</v>
       </c>
       <c r="BC85" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BD85" t="s">
         <v>237</v>
       </c>
       <c r="BE85" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="BF85" t="n">
         <v>14.8</v>
@@ -18504,32 +19074,80 @@
         <v>-1.53547297297297</v>
       </c>
       <c r="BX85" t="s">
-        <v>312</v>
-      </c>
-      <c r="BY85"/>
-      <c r="BZ85"/>
-      <c r="CA85"/>
-      <c r="CB85"/>
-      <c r="CC85"/>
-      <c r="CD85"/>
-      <c r="CE85"/>
-      <c r="CF85"/>
-      <c r="CG85"/>
-      <c r="CH85"/>
-      <c r="CI85"/>
-      <c r="CJ85"/>
-      <c r="CK85"/>
-      <c r="CL85"/>
-      <c r="CM85"/>
-      <c r="CN85"/>
-      <c r="CO85"/>
-      <c r="CP85"/>
-      <c r="CQ85"/>
-      <c r="CR85"/>
-      <c r="CS85"/>
-      <c r="CT85"/>
-      <c r="CU85"/>
-      <c r="CV85"/>
+        <v>308</v>
+      </c>
+      <c r="BY85" t="n">
+        <v>-10.74</v>
+      </c>
+      <c r="BZ85" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="CA85" t="n">
+        <v>90</v>
+      </c>
+      <c r="CB85" t="n">
+        <v>9</v>
+      </c>
+      <c r="CC85" t="n">
+        <v>93</v>
+      </c>
+      <c r="CD85" t="n">
+        <v>59</v>
+      </c>
+      <c r="CE85" t="n">
+        <v>90</v>
+      </c>
+      <c r="CF85" t="n">
+        <v>3</v>
+      </c>
+      <c r="CG85" t="n">
+        <v>26</v>
+      </c>
+      <c r="CH85" t="n">
+        <v>93</v>
+      </c>
+      <c r="CI85" t="n">
+        <v>4</v>
+      </c>
+      <c r="CJ85" t="n">
+        <v>93</v>
+      </c>
+      <c r="CK85" t="n">
+        <v>-9.09</v>
+      </c>
+      <c r="CL85" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="CM85" t="n">
+        <v>87</v>
+      </c>
+      <c r="CN85" t="n">
+        <v>6</v>
+      </c>
+      <c r="CO85" t="n">
+        <v>87</v>
+      </c>
+      <c r="CP85" t="n">
+        <v>42</v>
+      </c>
+      <c r="CQ85" t="n">
+        <v>87</v>
+      </c>
+      <c r="CR85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS85" t="n">
+        <v>21</v>
+      </c>
+      <c r="CT85" t="n">
+        <v>87</v>
+      </c>
+      <c r="CU85" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV85" t="n">
+        <v>87</v>
+      </c>
       <c r="CW85"/>
       <c r="CX85"/>
     </row>
@@ -18541,10 +19159,10 @@
         <v>43</v>
       </c>
       <c r="C86" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D86" t="s">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="E86" t="s">
         <v>145</v>
@@ -18661,13 +19279,13 @@
         <v>149</v>
       </c>
       <c r="BC86" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BD86" t="s">
         <v>237</v>
       </c>
       <c r="BE86" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="BF86" t="n">
         <v>14.8</v>
@@ -18716,7 +19334,7 @@
         <v>-1.5312</v>
       </c>
       <c r="BX86" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="BY86"/>
       <c r="BZ86"/>
@@ -18753,10 +19371,10 @@
         <v>44</v>
       </c>
       <c r="C87" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D87" t="s">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="E87" t="s">
         <v>145</v>
@@ -18841,13 +19459,13 @@
         <v>149</v>
       </c>
       <c r="BC87" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="BD87" t="s">
         <v>237</v>
       </c>
       <c r="BE87" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="BF87" t="n">
         <v>14.8</v>
@@ -18882,7 +19500,7 @@
       <c r="BV87"/>
       <c r="BW87"/>
       <c r="BX87" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="BY87"/>
       <c r="BZ87"/>
@@ -18919,13 +19537,13 @@
         <v>48</v>
       </c>
       <c r="C88" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D88" t="s">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="E88" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F88" t="s">
         <v>133</v>
@@ -19039,13 +19657,13 @@
         <v>149</v>
       </c>
       <c r="BC88" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="BD88" t="s">
         <v>137</v>
       </c>
       <c r="BE88" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="BF88"/>
       <c r="BG88"/>
@@ -19086,30 +19704,70 @@
         <v>-1.84109589041096</v>
       </c>
       <c r="BX88" t="s">
-        <v>318</v>
-      </c>
-      <c r="BY88"/>
-      <c r="BZ88"/>
-      <c r="CA88"/>
-      <c r="CB88"/>
-      <c r="CC88"/>
-      <c r="CD88"/>
-      <c r="CE88"/>
-      <c r="CF88"/>
-      <c r="CG88"/>
-      <c r="CH88"/>
+        <v>313</v>
+      </c>
+      <c r="BY88" t="n">
+        <v>-10.61</v>
+      </c>
+      <c r="BZ88" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="CA88" t="n">
+        <v>18</v>
+      </c>
+      <c r="CB88" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC88" t="n">
+        <v>23</v>
+      </c>
+      <c r="CD88" t="n">
+        <v>12</v>
+      </c>
+      <c r="CE88" t="n">
+        <v>18</v>
+      </c>
+      <c r="CF88" t="n">
+        <v>5</v>
+      </c>
+      <c r="CG88" t="n">
+        <v>5</v>
+      </c>
+      <c r="CH88" t="n">
+        <v>23</v>
+      </c>
       <c r="CI88"/>
       <c r="CJ88"/>
-      <c r="CK88"/>
-      <c r="CL88"/>
-      <c r="CM88"/>
-      <c r="CN88"/>
-      <c r="CO88"/>
-      <c r="CP88"/>
-      <c r="CQ88"/>
-      <c r="CR88"/>
-      <c r="CS88"/>
-      <c r="CT88"/>
+      <c r="CK88" t="n">
+        <v>-6.72</v>
+      </c>
+      <c r="CL88" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="CM88" t="n">
+        <v>18</v>
+      </c>
+      <c r="CN88" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO88" t="n">
+        <v>22</v>
+      </c>
+      <c r="CP88" t="n">
+        <v>9</v>
+      </c>
+      <c r="CQ88" t="n">
+        <v>18</v>
+      </c>
+      <c r="CR88" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS88" t="n">
+        <v>4</v>
+      </c>
+      <c r="CT88" t="n">
+        <v>22</v>
+      </c>
       <c r="CU88"/>
       <c r="CV88"/>
       <c r="CW88"/>
@@ -19123,13 +19781,13 @@
         <v>49</v>
       </c>
       <c r="C89" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D89" t="s">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="E89" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F89" t="s">
         <v>133</v>
@@ -19243,13 +19901,13 @@
         <v>149</v>
       </c>
       <c r="BC89" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="BD89" t="s">
         <v>137</v>
       </c>
       <c r="BE89" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="BF89"/>
       <c r="BG89"/>
@@ -19290,7 +19948,7 @@
         <v>-0.545893719806763</v>
       </c>
       <c r="BX89" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="BY89"/>
       <c r="BZ89"/>
@@ -19327,13 +19985,13 @@
         <v>50</v>
       </c>
       <c r="C90" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D90" t="s">
-        <v>314</v>
+        <v>103</v>
       </c>
       <c r="E90" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F90" t="s">
         <v>133</v>
@@ -19415,13 +20073,13 @@
         <v>149</v>
       </c>
       <c r="BC90" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="BD90" t="s">
         <v>137</v>
       </c>
       <c r="BE90" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="BF90"/>
       <c r="BG90"/>
@@ -19456,7 +20114,7 @@
       <c r="BV90"/>
       <c r="BW90"/>
       <c r="BX90" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="BY90"/>
       <c r="BZ90"/>
@@ -19493,13 +20151,13 @@
         <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D91" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E91" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F91" t="s">
         <v>133</v>
@@ -19620,10 +20278,10 @@
       </c>
       <c r="BC91"/>
       <c r="BD91" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="BE91" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="BF91"/>
       <c r="BG91"/>
@@ -19660,30 +20318,70 @@
         <v>-1.50655021834061</v>
       </c>
       <c r="BX91" t="s">
-        <v>323</v>
-      </c>
-      <c r="BY91"/>
-      <c r="BZ91"/>
-      <c r="CA91"/>
-      <c r="CB91"/>
-      <c r="CC91"/>
-      <c r="CD91"/>
-      <c r="CE91"/>
-      <c r="CF91"/>
-      <c r="CG91"/>
-      <c r="CH91"/>
+        <v>318</v>
+      </c>
+      <c r="BY91" t="n">
+        <v>-9.95</v>
+      </c>
+      <c r="BZ91" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="CA91" t="n">
+        <v>17</v>
+      </c>
+      <c r="CB91" t="n">
+        <v>9</v>
+      </c>
+      <c r="CC91" t="n">
+        <v>30</v>
+      </c>
+      <c r="CD91" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE91" t="n">
+        <v>17</v>
+      </c>
+      <c r="CF91" t="n">
+        <v>13</v>
+      </c>
+      <c r="CG91" t="n">
+        <v>13</v>
+      </c>
+      <c r="CH91" t="n">
+        <v>30</v>
+      </c>
       <c r="CI91"/>
       <c r="CJ91"/>
-      <c r="CK91"/>
-      <c r="CL91"/>
-      <c r="CM91"/>
-      <c r="CN91"/>
-      <c r="CO91"/>
-      <c r="CP91"/>
-      <c r="CQ91"/>
-      <c r="CR91"/>
-      <c r="CS91"/>
-      <c r="CT91"/>
+      <c r="CK91" t="n">
+        <v>-10.35</v>
+      </c>
+      <c r="CL91" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="CM91" t="n">
+        <v>25</v>
+      </c>
+      <c r="CN91" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO91" t="n">
+        <v>30</v>
+      </c>
+      <c r="CP91" t="n">
+        <v>9</v>
+      </c>
+      <c r="CQ91" t="n">
+        <v>25</v>
+      </c>
+      <c r="CR91" t="n">
+        <v>5</v>
+      </c>
+      <c r="CS91" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT91" t="n">
+        <v>30</v>
+      </c>
       <c r="CU91"/>
       <c r="CV91"/>
       <c r="CW91"/>
@@ -19697,13 +20395,13 @@
         <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D92" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E92" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F92" t="s">
         <v>133</v>
@@ -19768,7 +20466,7 @@
       <c r="AD92"/>
       <c r="AE92"/>
       <c r="AF92" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AG92"/>
       <c r="AH92"/>
@@ -19822,10 +20520,10 @@
       </c>
       <c r="BC92"/>
       <c r="BD92" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="BE92" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="BF92"/>
       <c r="BG92"/>
@@ -19862,30 +20560,70 @@
         <v>-1.50655021834061</v>
       </c>
       <c r="BX92" t="s">
-        <v>323</v>
-      </c>
-      <c r="BY92"/>
-      <c r="BZ92"/>
-      <c r="CA92"/>
-      <c r="CB92"/>
-      <c r="CC92"/>
-      <c r="CD92"/>
-      <c r="CE92"/>
-      <c r="CF92"/>
-      <c r="CG92"/>
-      <c r="CH92"/>
+        <v>318</v>
+      </c>
+      <c r="BY92" t="n">
+        <v>-9.95</v>
+      </c>
+      <c r="BZ92" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="CA92" t="n">
+        <v>17</v>
+      </c>
+      <c r="CB92" t="n">
+        <v>9</v>
+      </c>
+      <c r="CC92" t="n">
+        <v>30</v>
+      </c>
+      <c r="CD92" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE92" t="n">
+        <v>17</v>
+      </c>
+      <c r="CF92" t="n">
+        <v>13</v>
+      </c>
+      <c r="CG92" t="n">
+        <v>13</v>
+      </c>
+      <c r="CH92" t="n">
+        <v>30</v>
+      </c>
       <c r="CI92"/>
       <c r="CJ92"/>
-      <c r="CK92"/>
-      <c r="CL92"/>
-      <c r="CM92"/>
-      <c r="CN92"/>
-      <c r="CO92"/>
-      <c r="CP92"/>
-      <c r="CQ92"/>
-      <c r="CR92"/>
-      <c r="CS92"/>
-      <c r="CT92"/>
+      <c r="CK92" t="n">
+        <v>-10.35</v>
+      </c>
+      <c r="CL92" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="CM92" t="n">
+        <v>25</v>
+      </c>
+      <c r="CN92" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO92" t="n">
+        <v>30</v>
+      </c>
+      <c r="CP92" t="n">
+        <v>9</v>
+      </c>
+      <c r="CQ92" t="n">
+        <v>25</v>
+      </c>
+      <c r="CR92" t="n">
+        <v>5</v>
+      </c>
+      <c r="CS92" t="n">
+        <v>5</v>
+      </c>
+      <c r="CT92" t="n">
+        <v>30</v>
+      </c>
       <c r="CU92"/>
       <c r="CV92"/>
       <c r="CW92"/>
@@ -19899,13 +20637,13 @@
         <v>53</v>
       </c>
       <c r="C93" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D93" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E93" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F93" t="s">
         <v>133</v>
@@ -19988,10 +20726,10 @@
       </c>
       <c r="BC93"/>
       <c r="BD93" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="BE93" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="BF93"/>
       <c r="BG93"/>
@@ -20024,7 +20762,7 @@
       <c r="BV93"/>
       <c r="BW93"/>
       <c r="BX93" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="BY93"/>
       <c r="BZ93"/>
@@ -20061,13 +20799,13 @@
         <v>55</v>
       </c>
       <c r="C94" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D94" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E94" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F94" t="s">
         <v>133</v>
@@ -20132,7 +20870,7 @@
       <c r="AD94"/>
       <c r="AE94"/>
       <c r="AF94" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="AG94" t="n">
         <v>13</v>
@@ -20248,30 +20986,70 @@
         <v>-1.02325581395349</v>
       </c>
       <c r="BX94" t="s">
-        <v>329</v>
-      </c>
-      <c r="BY94"/>
-      <c r="BZ94"/>
-      <c r="CA94"/>
-      <c r="CB94"/>
-      <c r="CC94"/>
-      <c r="CD94"/>
-      <c r="CE94"/>
-      <c r="CF94"/>
-      <c r="CG94"/>
-      <c r="CH94"/>
+        <v>324</v>
+      </c>
+      <c r="BY94" t="n">
+        <v>-4</v>
+      </c>
+      <c r="BZ94" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="CA94" t="n">
+        <v>18</v>
+      </c>
+      <c r="CB94" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC94" t="n">
+        <v>18</v>
+      </c>
+      <c r="CD94" t="n">
+        <v>13</v>
+      </c>
+      <c r="CE94" t="n">
+        <v>18</v>
+      </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG94" t="n">
+        <v>6</v>
+      </c>
+      <c r="CH94" t="n">
+        <v>18</v>
+      </c>
       <c r="CI94"/>
       <c r="CJ94"/>
-      <c r="CK94"/>
-      <c r="CL94"/>
-      <c r="CM94"/>
-      <c r="CN94"/>
-      <c r="CO94"/>
-      <c r="CP94"/>
-      <c r="CQ94"/>
-      <c r="CR94"/>
-      <c r="CS94"/>
-      <c r="CT94"/>
+      <c r="CK94" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="CL94" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="CM94" t="n">
+        <v>13</v>
+      </c>
+      <c r="CN94" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO94" t="n">
+        <v>13</v>
+      </c>
+      <c r="CP94" t="n">
+        <v>11</v>
+      </c>
+      <c r="CQ94" t="n">
+        <v>13</v>
+      </c>
+      <c r="CR94" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS94" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT94" t="n">
+        <v>13</v>
+      </c>
       <c r="CU94"/>
       <c r="CV94"/>
       <c r="CW94"/>
@@ -20285,13 +21063,13 @@
         <v>54</v>
       </c>
       <c r="C95" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D95" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E95" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F95" t="s">
         <v>133</v>
@@ -20458,7 +21236,7 @@
         <v>-0.898550724637681</v>
       </c>
       <c r="BX95" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="BY95"/>
       <c r="BZ95"/>
@@ -20493,10 +21271,10 @@
         <v>52</v>
       </c>
       <c r="C96" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D96" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E96" t="s">
         <v>104</v>
@@ -20508,7 +21286,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I96" t="s">
         <v>106</v>
@@ -20658,7 +21436,7 @@
         <v>-0.310456011054814</v>
       </c>
       <c r="BX96" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="BY96"/>
       <c r="BZ96"/>
@@ -20697,10 +21475,10 @@
         <v>51</v>
       </c>
       <c r="C97" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D97" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E97" t="s">
         <v>104</v>
@@ -20712,7 +21490,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I97" t="s">
         <v>106</v>
@@ -20858,7 +21636,7 @@
         <v>-0.442477876106195</v>
       </c>
       <c r="BX97" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="BY97"/>
       <c r="BZ97"/>
@@ -20897,10 +21675,10 @@
         <v>53</v>
       </c>
       <c r="C98" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D98" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E98" t="s">
         <v>104</v>
@@ -20912,7 +21690,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I98" t="s">
         <v>106</v>
@@ -21058,7 +21836,7 @@
         <v>-0.934020618556701</v>
       </c>
       <c r="BX98" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="BY98"/>
       <c r="BZ98"/>
@@ -21097,10 +21875,10 @@
         <v>49</v>
       </c>
       <c r="C99" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D99" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E99" t="s">
         <v>104</v>
@@ -21112,7 +21890,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I99" t="s">
         <v>106</v>
@@ -21262,7 +22040,7 @@
         <v>-0.310456011054814</v>
       </c>
       <c r="BX99" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="BY99"/>
       <c r="BZ99"/>
@@ -21301,10 +22079,10 @@
         <v>48</v>
       </c>
       <c r="C100" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D100" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E100" t="s">
         <v>104</v>
@@ -21316,7 +22094,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I100" t="s">
         <v>106</v>
@@ -21462,7 +22240,7 @@
         <v>-0.442477876106195</v>
       </c>
       <c r="BX100" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="BY100"/>
       <c r="BZ100"/>
@@ -21501,10 +22279,10 @@
         <v>50</v>
       </c>
       <c r="C101" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D101" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E101" t="s">
         <v>104</v>
@@ -21516,7 +22294,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I101" t="s">
         <v>106</v>
@@ -21662,7 +22440,7 @@
         <v>-0.934020618556701</v>
       </c>
       <c r="BX101" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="BY101"/>
       <c r="BZ101"/>
@@ -21701,10 +22479,10 @@
         <v>55</v>
       </c>
       <c r="C102" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D102" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E102" t="s">
         <v>104</v>
@@ -21716,10 +22494,10 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I102" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="J102" t="s">
         <v>114</v>
@@ -21818,7 +22596,7 @@
       </c>
       <c r="BC102"/>
       <c r="BD102" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="BE102"/>
       <c r="BF102"/>
@@ -21854,7 +22632,7 @@
         <v>-0.53715308863026</v>
       </c>
       <c r="BX102" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="BY102"/>
       <c r="BZ102"/>
@@ -21893,10 +22671,10 @@
         <v>54</v>
       </c>
       <c r="C103" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D103" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="E103" t="s">
         <v>104</v>
@@ -22014,7 +22792,7 @@
       </c>
       <c r="BC103"/>
       <c r="BD103" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="BE103"/>
       <c r="BF103"/>
@@ -22050,7 +22828,7 @@
         <v>-0.750246791707799</v>
       </c>
       <c r="BX103" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="BY103"/>
       <c r="BZ103"/>
@@ -22089,10 +22867,10 @@
         <v>56</v>
       </c>
       <c r="C104" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D104" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E104" t="s">
         <v>104</v>
@@ -22104,7 +22882,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I104" t="s">
         <v>121</v>
@@ -22254,7 +23032,7 @@
         <v>-1.01932712956335</v>
       </c>
       <c r="BX104" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="BY104"/>
       <c r="BZ104"/>
@@ -22293,10 +23071,10 @@
         <v>57</v>
       </c>
       <c r="C105" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D105" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E105" t="s">
         <v>214</v>
@@ -22308,16 +23086,16 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I105" t="s">
         <v>211</v>
       </c>
       <c r="J105" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K105" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L105" t="n">
         <v>99</v>
@@ -22446,7 +23224,7 @@
         <v>-0.583732057416267</v>
       </c>
       <c r="BX105" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="BY105"/>
       <c r="BZ105"/>
@@ -22485,10 +23263,10 @@
         <v>58</v>
       </c>
       <c r="C106" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D106" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E106" t="s">
         <v>214</v>
@@ -22500,16 +23278,16 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I106" t="s">
         <v>211</v>
       </c>
       <c r="J106" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K106" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L106" t="n">
         <v>99</v>
@@ -22642,7 +23420,7 @@
         <v>-0.319148936170213</v>
       </c>
       <c r="BX106" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="BY106"/>
       <c r="BZ106"/>
@@ -22681,10 +23459,10 @@
         <v>59</v>
       </c>
       <c r="C107" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D107" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E107" t="s">
         <v>214</v>
@@ -22696,16 +23474,16 @@
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I107" t="s">
         <v>121</v>
       </c>
       <c r="J107" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K107" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="L107" t="n">
         <v>7</v>
@@ -22790,7 +23568,7 @@
       <c r="BV107"/>
       <c r="BW107"/>
       <c r="BX107" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="BY107"/>
       <c r="BZ107"/>
@@ -22825,7 +23603,7 @@
         <v>60</v>
       </c>
       <c r="C108" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D108" t="s">
         <v>207</v>
@@ -22842,7 +23620,7 @@
       </c>
       <c r="I108"/>
       <c r="J108" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K108" t="s">
         <v>135</v>
@@ -22956,7 +23734,7 @@
       </c>
       <c r="BW108"/>
       <c r="BX108" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="BY108"/>
       <c r="BZ108"/>
@@ -22993,7 +23771,7 @@
         <v>61</v>
       </c>
       <c r="C109" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D109" t="s">
         <v>207</v>
@@ -23010,10 +23788,10 @@
       </c>
       <c r="I109"/>
       <c r="J109" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K109" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L109" t="n">
         <v>8</v>
@@ -23122,7 +23900,7 @@
       </c>
       <c r="BW109"/>
       <c r="BX109" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="BY109"/>
       <c r="BZ109"/>
@@ -23161,10 +23939,10 @@
         <v>56</v>
       </c>
       <c r="C110" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D110" t="s">
-        <v>359</v>
+        <v>207</v>
       </c>
       <c r="E110" t="s">
         <v>141</v>
@@ -23281,7 +24059,7 @@
         <v>149</v>
       </c>
       <c r="BC110" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="BD110" t="s">
         <v>137</v>
@@ -23328,32 +24106,72 @@
         <v>-3.16639477977161</v>
       </c>
       <c r="BX110" t="s">
-        <v>361</v>
-      </c>
-      <c r="BY110"/>
-      <c r="BZ110"/>
-      <c r="CA110"/>
+        <v>355</v>
+      </c>
+      <c r="BY110" t="n">
+        <v>-22.64</v>
+      </c>
+      <c r="BZ110" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="CA110" t="n">
+        <v>109</v>
+      </c>
       <c r="CB110"/>
       <c r="CC110"/>
-      <c r="CD110"/>
-      <c r="CE110"/>
-      <c r="CF110"/>
-      <c r="CG110"/>
-      <c r="CH110"/>
-      <c r="CI110"/>
-      <c r="CJ110"/>
-      <c r="CK110"/>
-      <c r="CL110"/>
-      <c r="CM110"/>
+      <c r="CD110" t="n">
+        <v>66</v>
+      </c>
+      <c r="CE110" t="n">
+        <v>109</v>
+      </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG110" t="n">
+        <v>18</v>
+      </c>
+      <c r="CH110" t="n">
+        <v>109</v>
+      </c>
+      <c r="CI110" t="n">
+        <v>10</v>
+      </c>
+      <c r="CJ110" t="n">
+        <v>109</v>
+      </c>
+      <c r="CK110" t="n">
+        <v>-19.41</v>
+      </c>
+      <c r="CL110" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="CM110" t="n">
+        <v>112</v>
+      </c>
       <c r="CN110"/>
       <c r="CO110"/>
-      <c r="CP110"/>
-      <c r="CQ110"/>
-      <c r="CR110"/>
-      <c r="CS110"/>
-      <c r="CT110"/>
-      <c r="CU110"/>
-      <c r="CV110"/>
+      <c r="CP110" t="n">
+        <v>39</v>
+      </c>
+      <c r="CQ110" t="n">
+        <v>112</v>
+      </c>
+      <c r="CR110" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS110" t="n">
+        <v>23</v>
+      </c>
+      <c r="CT110" t="n">
+        <v>112</v>
+      </c>
+      <c r="CU110" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV110" t="n">
+        <v>112</v>
+      </c>
       <c r="CW110"/>
       <c r="CX110"/>
     </row>
@@ -23365,10 +24183,10 @@
         <v>57</v>
       </c>
       <c r="C111" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D111" t="s">
-        <v>359</v>
+        <v>207</v>
       </c>
       <c r="E111" t="s">
         <v>141</v>
@@ -23382,10 +24200,10 @@
       <c r="H111"/>
       <c r="I111"/>
       <c r="J111" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K111" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L111" t="n">
         <v>8</v>
@@ -23485,7 +24303,7 @@
         <v>149</v>
       </c>
       <c r="BC111" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="BD111" t="s">
         <v>137</v>
@@ -23532,7 +24350,7 @@
         <v>-1.4134755210858</v>
       </c>
       <c r="BX111" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="BY111"/>
       <c r="BZ111"/>
@@ -23569,10 +24387,10 @@
         <v>58</v>
       </c>
       <c r="C112" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D112" t="s">
-        <v>359</v>
+        <v>207</v>
       </c>
       <c r="E112" t="s">
         <v>141</v>
@@ -23657,7 +24475,7 @@
         <v>149</v>
       </c>
       <c r="BC112" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="BD112" t="s">
         <v>137</v>
@@ -23698,7 +24516,7 @@
       <c r="BV112"/>
       <c r="BW112"/>
       <c r="BX112" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="BY112"/>
       <c r="BZ112"/>
@@ -23733,10 +24551,10 @@
         <v>62</v>
       </c>
       <c r="C113" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D113" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="E113" t="s">
         <v>104</v>
@@ -23890,7 +24708,7 @@
         <v>0.0746268656716415</v>
       </c>
       <c r="BX113" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY113"/>
       <c r="BZ113"/>
@@ -23929,10 +24747,10 @@
         <v>63</v>
       </c>
       <c r="C114" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D114" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="E114" t="s">
         <v>104</v>
@@ -24082,7 +24900,7 @@
         <v>-0.165745856353591</v>
       </c>
       <c r="BX114" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY114"/>
       <c r="BZ114"/>
@@ -24121,10 +24939,10 @@
         <v>64</v>
       </c>
       <c r="C115" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D115" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="E115" t="s">
         <v>104</v>
@@ -24274,7 +25092,7 @@
         <v>-0.0655737704918034</v>
       </c>
       <c r="BX115" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="BY115"/>
       <c r="BZ115"/>
@@ -24313,10 +25131,10 @@
         <v>65</v>
       </c>
       <c r="C116" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D116" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E116" t="s">
         <v>104</v>
@@ -24328,7 +25146,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="I116"/>
       <c r="J116" t="s">
@@ -24476,7 +25294,7 @@
         <v>-0.0656934306569345</v>
       </c>
       <c r="BX116" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="BY116"/>
       <c r="BZ116"/>
@@ -24515,7 +25333,7 @@
         <v>66</v>
       </c>
       <c r="C117" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D117" t="s">
         <v>195</v>
@@ -24533,7 +25351,7 @@
         <v>164</v>
       </c>
       <c r="I117" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J117" t="s">
         <v>107</v>
@@ -24680,7 +25498,7 @@
         <v>-0.788571428571428</v>
       </c>
       <c r="BX117" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="BY117"/>
       <c r="BZ117"/>
@@ -24719,7 +25537,7 @@
         <v>67</v>
       </c>
       <c r="C118" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D118" t="s">
         <v>195</v>
@@ -24737,7 +25555,7 @@
         <v>164</v>
       </c>
       <c r="I118" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="J118" t="s">
         <v>155</v>
@@ -24880,7 +25698,7 @@
         <v>-0.853448275862069</v>
       </c>
       <c r="BX118" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="BY118"/>
       <c r="BZ118"/>
@@ -24919,7 +25737,7 @@
         <v>68</v>
       </c>
       <c r="C119" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D119" t="s">
         <v>207</v>
@@ -25084,7 +25902,7 @@
         <v>-0.82089552238806</v>
       </c>
       <c r="BX119" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="BY119"/>
       <c r="BZ119"/>
@@ -25123,7 +25941,7 @@
         <v>69</v>
       </c>
       <c r="C120" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D120" t="s">
         <v>207</v>
@@ -25284,7 +26102,7 @@
         <v>-1.04395604395604</v>
       </c>
       <c r="BX120" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="BY120"/>
       <c r="BZ120"/>
@@ -25325,13 +26143,13 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D121" t="s">
         <v>173</v>
       </c>
       <c r="E121" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F121" t="s">
         <v>133</v>
@@ -25451,7 +26269,7 @@
         <v>139</v>
       </c>
       <c r="BO121" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="BP121"/>
       <c r="BQ121" t="n">
@@ -25472,7 +26290,7 @@
         <v>-1.42686550108559</v>
       </c>
       <c r="BX121" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="BY121" t="n">
         <v>-15.85</v>
@@ -25541,13 +26359,13 @@
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D122" t="s">
         <v>180</v>
       </c>
       <c r="E122" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F122" t="s">
         <v>133</v>
@@ -25686,7 +26504,7 @@
         <v>-0.855730773625871</v>
       </c>
       <c r="BX122" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="BY122" t="n">
         <v>-13.48</v>
@@ -25755,10 +26573,10 @@
         <v>59</v>
       </c>
       <c r="C123" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D123" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="E123" t="s">
         <v>145</v>
@@ -25860,7 +26678,7 @@
       </c>
       <c r="BC123"/>
       <c r="BD123" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="BE123" t="s">
         <v>138</v>
@@ -25908,32 +26726,80 @@
       <c r="BV123"/>
       <c r="BW123"/>
       <c r="BX123" t="s">
-        <v>380</v>
-      </c>
-      <c r="BY123"/>
-      <c r="BZ123"/>
-      <c r="CA123"/>
-      <c r="CB123"/>
-      <c r="CC123"/>
-      <c r="CD123"/>
-      <c r="CE123"/>
-      <c r="CF123"/>
-      <c r="CG123"/>
-      <c r="CH123"/>
-      <c r="CI123"/>
-      <c r="CJ123"/>
-      <c r="CK123"/>
-      <c r="CL123"/>
-      <c r="CM123"/>
-      <c r="CN123"/>
-      <c r="CO123"/>
-      <c r="CP123"/>
-      <c r="CQ123"/>
-      <c r="CR123"/>
-      <c r="CS123"/>
-      <c r="CT123"/>
-      <c r="CU123"/>
-      <c r="CV123"/>
+        <v>374</v>
+      </c>
+      <c r="BY123" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="BZ123" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="CA123" t="n">
+        <v>29</v>
+      </c>
+      <c r="CB123" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC123" t="n">
+        <v>29</v>
+      </c>
+      <c r="CD123" t="n">
+        <v>15</v>
+      </c>
+      <c r="CE123" t="n">
+        <v>29</v>
+      </c>
+      <c r="CF123" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG123" t="n">
+        <v>4</v>
+      </c>
+      <c r="CH123" t="n">
+        <v>29</v>
+      </c>
+      <c r="CI123" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ123" t="n">
+        <v>29</v>
+      </c>
+      <c r="CK123" t="n">
+        <v>-11.9</v>
+      </c>
+      <c r="CL123" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="CM123" t="n">
+        <v>27</v>
+      </c>
+      <c r="CN123" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO123" t="n">
+        <v>27</v>
+      </c>
+      <c r="CP123" t="n">
+        <v>11</v>
+      </c>
+      <c r="CQ123" t="n">
+        <v>27</v>
+      </c>
+      <c r="CR123" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS123" t="n">
+        <v>3</v>
+      </c>
+      <c r="CT123" t="n">
+        <v>27</v>
+      </c>
+      <c r="CU123" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV123" t="n">
+        <v>27</v>
+      </c>
       <c r="CW123"/>
       <c r="CX123"/>
     </row>
@@ -25945,10 +26811,10 @@
         <v>60</v>
       </c>
       <c r="C124" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D124" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="E124" t="s">
         <v>145</v>
@@ -26034,7 +26900,7 @@
       </c>
       <c r="BC124"/>
       <c r="BD124" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="BE124" t="s">
         <v>138</v>
@@ -26072,7 +26938,7 @@
       <c r="BV124"/>
       <c r="BW124"/>
       <c r="BX124" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="BY124"/>
       <c r="BZ124"/>
@@ -26109,13 +26975,13 @@
         <v>61</v>
       </c>
       <c r="C125" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D125" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E125" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F125" t="s">
         <v>133</v>
@@ -26180,7 +27046,7 @@
       <c r="AD125"/>
       <c r="AE125"/>
       <c r="AF125" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AG125" t="n">
         <v>9</v>
@@ -26296,30 +27162,70 @@
         <v>-1.44736842105263</v>
       </c>
       <c r="BX125" t="s">
-        <v>384</v>
-      </c>
-      <c r="BY125"/>
-      <c r="BZ125"/>
-      <c r="CA125"/>
-      <c r="CB125"/>
-      <c r="CC125"/>
-      <c r="CD125"/>
-      <c r="CE125"/>
-      <c r="CF125"/>
-      <c r="CG125"/>
-      <c r="CH125"/>
+        <v>378</v>
+      </c>
+      <c r="BY125" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="BZ125" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="CA125" t="n">
+        <v>16</v>
+      </c>
+      <c r="CB125" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC125" t="n">
+        <v>20</v>
+      </c>
+      <c r="CD125" t="n">
+        <v>9</v>
+      </c>
+      <c r="CE125" t="n">
+        <v>16</v>
+      </c>
+      <c r="CF125" t="n">
+        <v>4</v>
+      </c>
+      <c r="CG125" t="n">
+        <v>4</v>
+      </c>
+      <c r="CH125" t="n">
+        <v>20</v>
+      </c>
       <c r="CI125"/>
       <c r="CJ125"/>
-      <c r="CK125"/>
-      <c r="CL125"/>
-      <c r="CM125"/>
-      <c r="CN125"/>
-      <c r="CO125"/>
-      <c r="CP125"/>
-      <c r="CQ125"/>
-      <c r="CR125"/>
-      <c r="CS125"/>
-      <c r="CT125"/>
+      <c r="CK125" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="CL125" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="CM125" t="n">
+        <v>22</v>
+      </c>
+      <c r="CN125" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO125" t="n">
+        <v>22</v>
+      </c>
+      <c r="CP125" t="n">
+        <v>15</v>
+      </c>
+      <c r="CQ125" t="n">
+        <v>22</v>
+      </c>
+      <c r="CR125" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS125" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT125" t="n">
+        <v>22</v>
+      </c>
       <c r="CU125"/>
       <c r="CV125"/>
       <c r="CW125"/>
@@ -26331,10 +27237,10 @@
         <v>73</v>
       </c>
       <c r="C126" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D126" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E126" t="s">
         <v>104</v>
@@ -26349,7 +27255,7 @@
         <v>104</v>
       </c>
       <c r="I126" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J126" t="s">
         <v>155</v>
@@ -26480,7 +27386,7 @@
         <v>-2.18532818532819</v>
       </c>
       <c r="BX126" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="BY126"/>
       <c r="BZ126"/>
@@ -26519,10 +27425,10 @@
         <v>75</v>
       </c>
       <c r="C127" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D127" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E127" t="s">
         <v>104</v>
@@ -26537,13 +27443,13 @@
         <v>104</v>
       </c>
       <c r="I127" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J127" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K127" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L127" t="n">
         <v>8</v>
@@ -26668,7 +27574,7 @@
         <v>-1.73107207752877</v>
       </c>
       <c r="BX127" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="BY127"/>
       <c r="BZ127"/>
@@ -26707,10 +27613,10 @@
         <v>74</v>
       </c>
       <c r="C128" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D128" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E128" t="s">
         <v>104</v>
@@ -26725,13 +27631,13 @@
         <v>104</v>
       </c>
       <c r="I128" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="J128" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K128" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L128" t="n">
         <v>9</v>
@@ -26856,7 +27762,7 @@
         <v>-1.65606668724915</v>
       </c>
       <c r="BX128" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="BY128"/>
       <c r="BZ128"/>
@@ -26895,10 +27801,10 @@
         <v>70</v>
       </c>
       <c r="C129" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D129" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E129" t="s">
         <v>104</v>
@@ -27048,7 +27954,7 @@
         <v>0.184313725490196</v>
       </c>
       <c r="BX129" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="BY129"/>
       <c r="BZ129"/>
@@ -27087,10 +27993,10 @@
         <v>72</v>
       </c>
       <c r="C130" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D130" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E130" t="s">
         <v>104</v>
@@ -27108,10 +28014,10 @@
         <v>106</v>
       </c>
       <c r="J130" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K130" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L130" t="n">
         <v>8</v>
@@ -27236,7 +28142,7 @@
         <v>0.0492957746478875</v>
       </c>
       <c r="BX130" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="BY130"/>
       <c r="BZ130"/>
@@ -27275,10 +28181,10 @@
         <v>71</v>
       </c>
       <c r="C131" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D131" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E131" t="s">
         <v>104</v>
@@ -27296,10 +28202,10 @@
         <v>106</v>
       </c>
       <c r="J131" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K131" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L131" t="n">
         <v>9</v>
@@ -27424,7 +28330,7 @@
         <v>1.14944237918216</v>
       </c>
       <c r="BX131" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="BY131"/>
       <c r="BZ131"/>
@@ -27463,7 +28369,7 @@
         <v>77</v>
       </c>
       <c r="C132" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D132" t="s">
         <v>207</v>
@@ -27481,7 +28387,7 @@
         <v>104</v>
       </c>
       <c r="I132" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="J132" t="s">
         <v>107</v>
@@ -27612,7 +28518,7 @@
       </c>
       <c r="BO132"/>
       <c r="BP132" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="BQ132"/>
       <c r="BR132" t="n">
@@ -27634,7 +28540,7 @@
         <v>0.393162393162393</v>
       </c>
       <c r="BX132" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="BY132"/>
       <c r="BZ132"/>
@@ -27673,7 +28579,7 @@
         <v>76</v>
       </c>
       <c r="C133" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D133" t="s">
         <v>207</v>
@@ -27691,7 +28597,7 @@
         <v>104</v>
       </c>
       <c r="I133" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="J133" t="s">
         <v>155</v>
@@ -27818,7 +28724,7 @@
       </c>
       <c r="BO133"/>
       <c r="BP133" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="BQ133"/>
       <c r="BR133" t="n">
@@ -27840,7 +28746,7 @@
         <v>0.174311926605505</v>
       </c>
       <c r="BX133" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="BY133"/>
       <c r="BZ133"/>
@@ -27879,10 +28785,10 @@
         <v>118</v>
       </c>
       <c r="C134" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D134" t="s">
-        <v>395</v>
+        <v>131</v>
       </c>
       <c r="E134" t="s">
         <v>104</v>
@@ -27894,13 +28800,13 @@
         <v>1</v>
       </c>
       <c r="H134" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="I134" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="J134" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="K134" t="s">
         <v>158</v>
@@ -28032,7 +28938,7 @@
         <v>0.311688311688312</v>
       </c>
       <c r="BX134" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="BY134"/>
       <c r="BZ134"/>
@@ -28071,7 +28977,7 @@
         <v>78</v>
       </c>
       <c r="C135" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D135" t="s">
         <v>195</v>
@@ -28228,7 +29134,7 @@
         <v>-0.670826833073323</v>
       </c>
       <c r="BX135" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="BY135"/>
       <c r="BZ135"/>
@@ -28267,7 +29173,7 @@
         <v>79</v>
       </c>
       <c r="C136" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D136" t="s">
         <v>195</v>
@@ -28424,7 +29330,7 @@
         <v>-0.670826833073323</v>
       </c>
       <c r="BX136" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="BY136"/>
       <c r="BZ136"/>
@@ -28463,10 +29369,10 @@
         <v>80</v>
       </c>
       <c r="C137" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="D137" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="E137" t="s">
         <v>214</v>
@@ -28478,16 +29384,16 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="I137" t="s">
         <v>121</v>
       </c>
       <c r="J137" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K137" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L137" t="n">
         <v>8</v>
@@ -28552,7 +29458,7 @@
       </c>
       <c r="BC137"/>
       <c r="BD137" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="BE137"/>
       <c r="BF137" t="n">
@@ -28572,7 +29478,7 @@
       <c r="BL137"/>
       <c r="BM137"/>
       <c r="BN137" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="BO137"/>
       <c r="BP137"/>
@@ -28592,7 +29498,7 @@
       <c r="BV137"/>
       <c r="BW137"/>
       <c r="BX137" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="BY137"/>
       <c r="BZ137"/>
@@ -28627,7 +29533,7 @@
         <v>81</v>
       </c>
       <c r="C138" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D138" t="s">
         <v>183</v>
@@ -28648,10 +29554,10 @@
         <v>106</v>
       </c>
       <c r="J138" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="K138" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="L138" t="n">
         <v>99</v>
@@ -28748,7 +29654,7 @@
       </c>
       <c r="BC138"/>
       <c r="BD138" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="BE138"/>
       <c r="BF138" t="n">
@@ -28772,7 +29678,7 @@
       </c>
       <c r="BO138"/>
       <c r="BP138" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="BQ138"/>
       <c r="BR138" t="n">
@@ -28794,7 +29700,7 @@
         <v>0.20610349402919</v>
       </c>
       <c r="BX138" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="BY138"/>
       <c r="BZ138"/>
@@ -28833,7 +29739,7 @@
         <v>84</v>
       </c>
       <c r="C139" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D139" t="s">
         <v>183</v>
@@ -28982,7 +29888,7 @@
         <v>-1.42666666666667</v>
       </c>
       <c r="BX139" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="BY139"/>
       <c r="BZ139"/>
@@ -29021,7 +29927,7 @@
         <v>86</v>
       </c>
       <c r="C140" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D140" t="s">
         <v>210</v>
@@ -29036,13 +29942,13 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="I140" t="s">
         <v>121</v>
       </c>
       <c r="J140" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K140" t="s">
         <v>135</v>
@@ -29186,7 +30092,7 @@
         <v>-3.29770992366412</v>
       </c>
       <c r="BX140" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="BY140"/>
       <c r="BZ140"/>
@@ -29225,7 +30131,7 @@
         <v>85</v>
       </c>
       <c r="C141" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D141" t="s">
         <v>210</v>
@@ -29240,7 +30146,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="I141" t="s">
         <v>121</v>
@@ -29390,7 +30296,7 @@
         <v>-1.77319587628866</v>
       </c>
       <c r="BX141" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="BY141"/>
       <c r="BZ141"/>
@@ -29429,10 +30335,10 @@
         <v>87</v>
       </c>
       <c r="C142" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D142" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E142" t="s">
         <v>104</v>
@@ -29447,13 +30353,13 @@
         <v>104</v>
       </c>
       <c r="I142" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="J142" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K142" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="L142" t="n">
         <v>7</v>
@@ -29546,7 +30452,7 @@
       </c>
       <c r="BC142"/>
       <c r="BD142" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="BE142"/>
       <c r="BF142" t="n">
@@ -29576,7 +30482,7 @@
         <v>-0.398104265402843</v>
       </c>
       <c r="BX142" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="BY142"/>
       <c r="BZ142"/>
@@ -29615,10 +30521,10 @@
         <v>88</v>
       </c>
       <c r="C143" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D143" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E143" t="s">
         <v>104</v>
@@ -29636,10 +30542,10 @@
         <v>121</v>
       </c>
       <c r="J143" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="K143" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="L143" t="n">
         <v>7</v>
@@ -29736,7 +30642,7 @@
       </c>
       <c r="BC143"/>
       <c r="BD143" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="BE143"/>
       <c r="BF143" t="n">
@@ -29766,7 +30672,7 @@
         <v>-0.705550329256821</v>
       </c>
       <c r="BX143" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="BY143"/>
       <c r="BZ143"/>
@@ -29805,13 +30711,13 @@
         <v>91</v>
       </c>
       <c r="C144" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D144" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="E144" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F144" t="s">
         <v>105</v>
@@ -29820,13 +30726,13 @@
         <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I144" t="s">
         <v>106</v>
       </c>
       <c r="J144" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K144" t="s">
         <v>135</v>
@@ -29964,7 +30870,7 @@
         <v>-0.349079263410729</v>
       </c>
       <c r="BX144" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BY144"/>
       <c r="BZ144"/>
@@ -30003,13 +30909,13 @@
         <v>89</v>
       </c>
       <c r="C145" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D145" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="E145" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F145" t="s">
         <v>105</v>
@@ -30018,7 +30924,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I145" t="s">
         <v>106</v>
@@ -30158,7 +31064,7 @@
         <v>-0.152602324406266</v>
       </c>
       <c r="BX145" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BY145"/>
       <c r="BZ145"/>
@@ -30197,13 +31103,13 @@
         <v>90</v>
       </c>
       <c r="C146" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D146" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="E146" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F146" t="s">
         <v>105</v>
@@ -30212,16 +31118,16 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I146" t="s">
         <v>106</v>
       </c>
       <c r="J146" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="K146" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="L146" t="n">
         <v>10</v>
@@ -30352,7 +31258,7 @@
         <v>-0.374746597161888</v>
       </c>
       <c r="BX146" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BY146"/>
       <c r="BZ146"/>
@@ -30391,13 +31297,13 @@
         <v>92</v>
       </c>
       <c r="C147" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D147" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="E147" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F147" t="s">
         <v>105</v>
@@ -30406,7 +31312,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I147" t="s">
         <v>106</v>
@@ -30546,7 +31452,7 @@
         <v>0.322781988408382</v>
       </c>
       <c r="BX147" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="BY147"/>
       <c r="BZ147"/>
@@ -30585,10 +31491,10 @@
         <v>95</v>
       </c>
       <c r="C148" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D148" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="E148" t="s">
         <v>214</v>
@@ -30600,13 +31506,13 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="I148" t="s">
         <v>106</v>
       </c>
       <c r="J148" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K148" t="s">
         <v>135</v>
@@ -30744,7 +31650,7 @@
         <v>-0.349079263410729</v>
       </c>
       <c r="BX148" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="BY148"/>
       <c r="BZ148"/>
@@ -30783,10 +31689,10 @@
         <v>93</v>
       </c>
       <c r="C149" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D149" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="E149" t="s">
         <v>214</v>
@@ -30798,7 +31704,7 @@
         <v>1</v>
       </c>
       <c r="H149" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="I149" t="s">
         <v>106</v>
@@ -30938,7 +31844,7 @@
         <v>-0.152602324406266</v>
       </c>
       <c r="BX149" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="BY149"/>
       <c r="BZ149"/>
@@ -30977,10 +31883,10 @@
         <v>94</v>
       </c>
       <c r="C150" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D150" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="E150" t="s">
         <v>214</v>
@@ -30992,16 +31898,16 @@
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="I150" t="s">
         <v>106</v>
       </c>
       <c r="J150" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="K150" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="L150" t="n">
         <v>10</v>
@@ -31132,7 +32038,7 @@
         <v>-0.374746597161888</v>
       </c>
       <c r="BX150" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="BY150"/>
       <c r="BZ150"/>
@@ -31171,10 +32077,10 @@
         <v>96</v>
       </c>
       <c r="C151" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D151" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="E151" t="s">
         <v>214</v>
@@ -31186,7 +32092,7 @@
         <v>1</v>
       </c>
       <c r="H151" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="I151" t="s">
         <v>106</v>
@@ -31326,7 +32232,7 @@
         <v>0.322781988408382</v>
       </c>
       <c r="BX151" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="BY151"/>
       <c r="BZ151"/>
@@ -31365,10 +32271,10 @@
         <v>99</v>
       </c>
       <c r="C152" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D152" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E152" t="s">
         <v>104</v>
@@ -31380,10 +32286,10 @@
         <v>1</v>
       </c>
       <c r="H152" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="I152" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="J152" t="s">
         <v>155</v>
@@ -31518,7 +32424,7 @@
         <v>-0.304691618344755</v>
       </c>
       <c r="BX152" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="BY152"/>
       <c r="BZ152"/>
@@ -31557,10 +32463,10 @@
         <v>100</v>
       </c>
       <c r="C153" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D153" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E153" t="s">
         <v>104</v>
@@ -31572,13 +32478,13 @@
         <v>1</v>
       </c>
       <c r="H153" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="I153" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="J153" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="K153" t="s">
         <v>158</v>
@@ -31710,7 +32616,7 @@
         <v>-0.303030303030303</v>
       </c>
       <c r="BX153" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="BY153"/>
       <c r="BZ153"/>
@@ -31749,10 +32655,10 @@
         <v>97</v>
       </c>
       <c r="C154" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D154" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E154" t="s">
         <v>104</v>
@@ -31767,7 +32673,7 @@
         <v>104</v>
       </c>
       <c r="I154" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="J154" t="s">
         <v>155</v>
@@ -31906,7 +32812,7 @@
         <v>-0.304691618344755</v>
       </c>
       <c r="BX154" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="BY154"/>
       <c r="BZ154"/>
@@ -31945,10 +32851,10 @@
         <v>98</v>
       </c>
       <c r="C155" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D155" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E155" t="s">
         <v>104</v>
@@ -31963,10 +32869,10 @@
         <v>104</v>
       </c>
       <c r="I155" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="J155" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="K155" t="s">
         <v>158</v>
@@ -32098,7 +33004,7 @@
         <v>-0.303030303030303</v>
       </c>
       <c r="BX155" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="BY155"/>
       <c r="BZ155"/>
@@ -32137,13 +33043,13 @@
         <v>101</v>
       </c>
       <c r="C156" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D156" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E156" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F156" t="s">
         <v>121</v>
@@ -32152,10 +33058,10 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I156" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="J156" t="s">
         <v>155</v>
@@ -32294,7 +33200,7 @@
         <v>-0.304691618344755</v>
       </c>
       <c r="BX156" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="BY156"/>
       <c r="BZ156"/>
@@ -32333,13 +33239,13 @@
         <v>102</v>
       </c>
       <c r="C157" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D157" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E157" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F157" t="s">
         <v>121</v>
@@ -32348,13 +33254,13 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I157" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="J157" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="K157" t="s">
         <v>158</v>
@@ -32486,7 +33392,7 @@
         <v>-0.303030303030303</v>
       </c>
       <c r="BX157" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="BY157"/>
       <c r="BZ157"/>
@@ -32525,7 +33431,7 @@
         <v>103</v>
       </c>
       <c r="C158" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="D158" t="s">
         <v>210</v>
@@ -32546,7 +33452,7 @@
         <v>121</v>
       </c>
       <c r="J158" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="K158" t="s">
         <v>158</v>
@@ -32646,7 +33552,7 @@
       <c r="BV158"/>
       <c r="BW158"/>
       <c r="BX158" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="BY158"/>
       <c r="BZ158"/>
@@ -32681,7 +33587,7 @@
         <v>104</v>
       </c>
       <c r="C159" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D159" t="s">
         <v>163</v>
@@ -32846,7 +33752,7 @@
         <v>-0.53125</v>
       </c>
       <c r="BX159" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="BY159"/>
       <c r="BZ159"/>
@@ -32885,7 +33791,7 @@
         <v>105</v>
       </c>
       <c r="C160" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D160" t="s">
         <v>163</v>
@@ -32906,7 +33812,7 @@
         <v>121</v>
       </c>
       <c r="J160" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="K160" t="s">
         <v>158</v>
@@ -33046,7 +33952,7 @@
         <v>0.0571428571428572</v>
       </c>
       <c r="BX160" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="BY160"/>
       <c r="BZ160"/>
@@ -33085,7 +33991,7 @@
         <v>120</v>
       </c>
       <c r="C161" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D161" t="s">
         <v>120</v>
@@ -33100,10 +34006,10 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="I161" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="J161" t="s">
         <v>221</v>
@@ -33202,7 +34108,7 @@
       </c>
       <c r="BC161"/>
       <c r="BD161" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="BE161"/>
       <c r="BF161" t="n">
@@ -33248,7 +34154,7 @@
         <v>-0.0714630613230325</v>
       </c>
       <c r="BX161" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="BY161"/>
       <c r="BZ161"/>
@@ -33287,10 +34193,10 @@
         <v>121</v>
       </c>
       <c r="C162" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D162" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E162" t="s">
         <v>104</v>
@@ -33305,7 +34211,7 @@
         <v>104</v>
       </c>
       <c r="I162" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="J162" t="s">
         <v>221</v>
@@ -33452,7 +34358,7 @@
         <v>-0.788888888888889</v>
       </c>
       <c r="BX162" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="BY162"/>
       <c r="BZ162"/>
@@ -33491,10 +34397,10 @@
         <v>122</v>
       </c>
       <c r="C163" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D163" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E163" t="s">
         <v>104</v>
@@ -33509,13 +34415,13 @@
         <v>104</v>
       </c>
       <c r="I163" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="J163" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="K163" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="L163" t="n">
         <v>99</v>
@@ -33652,7 +34558,7 @@
         <v>-1.025</v>
       </c>
       <c r="BX163" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="BY163"/>
       <c r="BZ163"/>
@@ -33691,10 +34597,10 @@
         <v>106</v>
       </c>
       <c r="C164" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D164" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E164" t="s">
         <v>104</v>
@@ -33706,10 +34612,10 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="I164" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="J164" t="s">
         <v>155</v>
@@ -33852,7 +34758,7 @@
         <v>-0.437158469945355</v>
       </c>
       <c r="BX164" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="BY164"/>
       <c r="BZ164"/>
@@ -33893,13 +34799,13 @@
         <v>63</v>
       </c>
       <c r="C165" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D165" t="s">
         <v>144</v>
       </c>
       <c r="E165" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F165" t="s">
         <v>133</v>
@@ -33939,14 +34845,18 @@
       <c r="S165" t="n">
         <v>120</v>
       </c>
-      <c r="T165"/>
+      <c r="T165" t="n">
+        <v>17.91</v>
+      </c>
       <c r="U165" t="n">
         <v>5.5</v>
       </c>
       <c r="V165" t="n">
         <v>79</v>
       </c>
-      <c r="W165"/>
+      <c r="W165" t="n">
+        <v>18.09</v>
+      </c>
       <c r="X165" t="n">
         <v>5.5</v>
       </c>
@@ -33994,10 +34904,10 @@
       </c>
       <c r="BC165"/>
       <c r="BD165" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="BE165" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="BF165" t="n">
         <v>16</v>
@@ -34023,7 +34933,7 @@
         <v>139</v>
       </c>
       <c r="BO165" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="BP165"/>
       <c r="BQ165"/>
@@ -34039,35 +34949,87 @@
       <c r="BU165" t="n">
         <v>1</v>
       </c>
-      <c r="BV165"/>
-      <c r="BW165"/>
+      <c r="BV165" t="n">
+        <v>-2.19818181818182</v>
+      </c>
+      <c r="BW165" t="n">
+        <v>-2.16545454545455</v>
+      </c>
       <c r="BX165" t="s">
-        <v>461</v>
-      </c>
-      <c r="BY165"/>
-      <c r="BZ165"/>
-      <c r="CA165"/>
-      <c r="CB165"/>
-      <c r="CC165"/>
-      <c r="CD165"/>
-      <c r="CE165"/>
-      <c r="CF165"/>
-      <c r="CG165"/>
-      <c r="CH165"/>
-      <c r="CI165"/>
-      <c r="CJ165"/>
-      <c r="CK165"/>
-      <c r="CL165"/>
-      <c r="CM165"/>
-      <c r="CN165"/>
-      <c r="CO165"/>
-      <c r="CP165"/>
-      <c r="CQ165"/>
-      <c r="CR165"/>
-      <c r="CS165"/>
-      <c r="CT165"/>
-      <c r="CU165"/>
-      <c r="CV165"/>
+        <v>453</v>
+      </c>
+      <c r="BY165" t="n">
+        <v>-12.09</v>
+      </c>
+      <c r="BZ165" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="CA165" t="n">
+        <v>96</v>
+      </c>
+      <c r="CB165" t="n">
+        <v>14</v>
+      </c>
+      <c r="CC165" t="n">
+        <v>124</v>
+      </c>
+      <c r="CD165" t="n">
+        <v>48</v>
+      </c>
+      <c r="CE165" t="n">
+        <v>121</v>
+      </c>
+      <c r="CF165" t="n">
+        <v>3</v>
+      </c>
+      <c r="CG165" t="n">
+        <v>45</v>
+      </c>
+      <c r="CH165" t="n">
+        <v>124</v>
+      </c>
+      <c r="CI165" t="n">
+        <v>9</v>
+      </c>
+      <c r="CJ165" t="n">
+        <v>124</v>
+      </c>
+      <c r="CK165" t="n">
+        <v>-11.91</v>
+      </c>
+      <c r="CL165" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="CM165" t="n">
+        <v>91</v>
+      </c>
+      <c r="CN165" t="n">
+        <v>9</v>
+      </c>
+      <c r="CO165" t="n">
+        <v>120</v>
+      </c>
+      <c r="CP165" t="n">
+        <v>44</v>
+      </c>
+      <c r="CQ165" t="n">
+        <v>112</v>
+      </c>
+      <c r="CR165" t="n">
+        <v>8</v>
+      </c>
+      <c r="CS165" t="n">
+        <v>46</v>
+      </c>
+      <c r="CT165" t="n">
+        <v>120</v>
+      </c>
+      <c r="CU165" t="n">
+        <v>5</v>
+      </c>
+      <c r="CV165" t="n">
+        <v>120</v>
+      </c>
       <c r="CW165"/>
       <c r="CX165"/>
     </row>
@@ -34079,13 +35041,13 @@
         <v>62</v>
       </c>
       <c r="C166" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D166" t="s">
         <v>144</v>
       </c>
       <c r="E166" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F166" t="s">
         <v>133</v>
@@ -34146,7 +35108,7 @@
       <c r="AD166"/>
       <c r="AE166"/>
       <c r="AF166" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="AG166"/>
       <c r="AH166"/>
@@ -34180,10 +35142,10 @@
       </c>
       <c r="BC166"/>
       <c r="BD166" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="BE166" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="BF166" t="n">
         <v>16</v>
@@ -34226,7 +35188,7 @@
       <c r="BV166"/>
       <c r="BW166"/>
       <c r="BX166" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="BY166"/>
       <c r="BZ166"/>
@@ -34261,10 +35223,10 @@
         <v>107</v>
       </c>
       <c r="C167" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D167" t="s">
-        <v>464</v>
+        <v>321</v>
       </c>
       <c r="E167" t="s">
         <v>104</v>
@@ -34279,13 +35241,13 @@
         <v>104</v>
       </c>
       <c r="I167" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="J167" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="K167" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="L167" t="n">
         <v>7</v>
@@ -34378,7 +35340,7 @@
       </c>
       <c r="BC167"/>
       <c r="BD167" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="BE167"/>
       <c r="BF167"/>
@@ -34410,7 +35372,7 @@
         <v>-0.675496688741722</v>
       </c>
       <c r="BX167" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BY167"/>
       <c r="BZ167"/>
@@ -34449,10 +35411,10 @@
         <v>108</v>
       </c>
       <c r="C168" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D168" t="s">
-        <v>464</v>
+        <v>321</v>
       </c>
       <c r="E168" t="s">
         <v>104</v>
@@ -34467,13 +35429,13 @@
         <v>104</v>
       </c>
       <c r="I168" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="J168" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="K168" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="L168" t="n">
         <v>7</v>
@@ -34570,7 +35532,7 @@
       </c>
       <c r="BC168"/>
       <c r="BD168" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="BE168"/>
       <c r="BF168"/>
@@ -34602,7 +35564,7 @@
         <v>-0.909722222222222</v>
       </c>
       <c r="BX168" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="BY168"/>
       <c r="BZ168"/>
@@ -34643,13 +35605,13 @@
         <v>64</v>
       </c>
       <c r="C169" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D169" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="E169" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F169" t="s">
         <v>133</v>
@@ -34718,7 +35680,7 @@
       <c r="AD169"/>
       <c r="AE169"/>
       <c r="AF169" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="AG169" t="n">
         <v>128</v>
@@ -34761,13 +35723,13 @@
         <v>149</v>
       </c>
       <c r="BC169" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="BD169" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="BE169" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="BF169"/>
       <c r="BG169"/>
@@ -34800,7 +35762,7 @@
         <v>-1.83545454545455</v>
       </c>
       <c r="BX169" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="BY169"/>
       <c r="BZ169"/>
@@ -34837,13 +35799,13 @@
         <v>65</v>
       </c>
       <c r="C170" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D170" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="E170" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F170" t="s">
         <v>133</v>
@@ -34925,10 +35887,10 @@
         <v>149</v>
       </c>
       <c r="BC170" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="BD170" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="BE170" t="s">
         <v>138</v>
@@ -34958,7 +35920,7 @@
       <c r="BV170"/>
       <c r="BW170"/>
       <c r="BX170" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="BY170"/>
       <c r="BZ170"/>
@@ -34995,13 +35957,13 @@
         <v>66</v>
       </c>
       <c r="C171" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D171" t="s">
-        <v>359</v>
+        <v>207</v>
       </c>
       <c r="E171" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F171" t="s">
         <v>133</v>
@@ -35041,14 +36003,18 @@
       <c r="S171" t="n">
         <v>85</v>
       </c>
-      <c r="T171"/>
+      <c r="T171" t="n">
+        <v>37.1</v>
+      </c>
       <c r="U171" t="n">
         <v>10.9</v>
       </c>
       <c r="V171" t="n">
         <v>89</v>
       </c>
-      <c r="W171"/>
+      <c r="W171" t="n">
+        <v>41.3</v>
+      </c>
       <c r="X171" t="n">
         <v>11.1</v>
       </c>
@@ -35062,7 +36028,7 @@
       <c r="AD171"/>
       <c r="AE171"/>
       <c r="AF171" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="AG171" t="n">
         <v>32</v>
@@ -35105,7 +36071,7 @@
         <v>149</v>
       </c>
       <c r="BC171" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="BD171" t="s">
         <v>137</v>
@@ -35155,35 +36121,83 @@
       <c r="BU171" t="n">
         <v>2.95729291673125</v>
       </c>
-      <c r="BV171"/>
-      <c r="BW171"/>
+      <c r="BV171" t="n">
+        <v>-1.99082568807339</v>
+      </c>
+      <c r="BW171" t="n">
+        <v>-1.48648648648649</v>
+      </c>
       <c r="BX171" t="s">
-        <v>478</v>
-      </c>
-      <c r="BY171"/>
-      <c r="BZ171"/>
-      <c r="CA171"/>
-      <c r="CB171"/>
-      <c r="CC171"/>
-      <c r="CD171"/>
-      <c r="CE171"/>
+        <v>469</v>
+      </c>
+      <c r="BY171" t="n">
+        <v>-21.7</v>
+      </c>
+      <c r="BZ171" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="CA171" t="n">
+        <v>89</v>
+      </c>
+      <c r="CB171" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC171" t="n">
+        <v>93</v>
+      </c>
+      <c r="CD171" t="n">
+        <v>42</v>
+      </c>
+      <c r="CE171" t="n">
+        <v>89</v>
+      </c>
       <c r="CF171"/>
-      <c r="CG171"/>
-      <c r="CH171"/>
-      <c r="CI171"/>
-      <c r="CJ171"/>
-      <c r="CK171"/>
-      <c r="CL171"/>
-      <c r="CM171"/>
-      <c r="CN171"/>
-      <c r="CO171"/>
-      <c r="CP171"/>
-      <c r="CQ171"/>
+      <c r="CG171" t="n">
+        <v>22</v>
+      </c>
+      <c r="CH171" t="n">
+        <v>93</v>
+      </c>
+      <c r="CI171" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ171" t="n">
+        <v>93</v>
+      </c>
+      <c r="CK171" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="CL171" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="CM171" t="n">
+        <v>85</v>
+      </c>
+      <c r="CN171" t="n">
+        <v>5</v>
+      </c>
+      <c r="CO171" t="n">
+        <v>85</v>
+      </c>
+      <c r="CP171" t="n">
+        <v>38</v>
+      </c>
+      <c r="CQ171" t="n">
+        <v>85</v>
+      </c>
       <c r="CR171"/>
-      <c r="CS171"/>
-      <c r="CT171"/>
-      <c r="CU171"/>
-      <c r="CV171"/>
+      <c r="CS171" t="n">
+        <v>18</v>
+      </c>
+      <c r="CT171" t="n">
+        <v>85</v>
+      </c>
+      <c r="CU171" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV171" t="n">
+        <v>85</v>
+      </c>
       <c r="CW171"/>
       <c r="CX171"/>
     </row>
@@ -35195,13 +36209,13 @@
         <v>67</v>
       </c>
       <c r="C172" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D172" t="s">
-        <v>359</v>
+        <v>207</v>
       </c>
       <c r="E172" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F172" t="s">
         <v>133</v>
@@ -35283,7 +36297,7 @@
         <v>149</v>
       </c>
       <c r="BC172" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="BD172" t="s">
         <v>137</v>
@@ -35328,7 +36342,7 @@
       <c r="BV172"/>
       <c r="BW172"/>
       <c r="BX172" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="BY172"/>
       <c r="BZ172"/>
@@ -35365,13 +36379,13 @@
         <v>68</v>
       </c>
       <c r="C173" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D173" t="s">
         <v>144</v>
       </c>
       <c r="E173" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F173" t="s">
         <v>133</v>
@@ -35440,7 +36454,7 @@
         <v>132</v>
       </c>
       <c r="AF173" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="AG173" t="n">
         <v>59</v>
@@ -35483,13 +36497,13 @@
         <v>149</v>
       </c>
       <c r="BC173" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="BD173" t="s">
         <v>137</v>
       </c>
       <c r="BE173" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="BF173" t="n">
         <v>12.2</v>
@@ -35542,32 +36556,76 @@
         <v>-1.96206147868815</v>
       </c>
       <c r="BX173" t="s">
-        <v>480</v>
-      </c>
-      <c r="BY173"/>
-      <c r="BZ173"/>
-      <c r="CA173"/>
-      <c r="CB173"/>
-      <c r="CC173"/>
-      <c r="CD173"/>
-      <c r="CE173"/>
+        <v>471</v>
+      </c>
+      <c r="BY173" t="n">
+        <v>-21.9</v>
+      </c>
+      <c r="BZ173" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="CA173" t="n">
+        <v>129</v>
+      </c>
+      <c r="CB173" t="n">
+        <v>2</v>
+      </c>
+      <c r="CC173" t="n">
+        <v>132</v>
+      </c>
+      <c r="CD173" t="n">
+        <v>81</v>
+      </c>
+      <c r="CE173" t="n">
+        <v>129</v>
+      </c>
       <c r="CF173"/>
-      <c r="CG173"/>
-      <c r="CH173"/>
-      <c r="CI173"/>
-      <c r="CJ173"/>
-      <c r="CK173"/>
-      <c r="CL173"/>
-      <c r="CM173"/>
-      <c r="CN173"/>
-      <c r="CO173"/>
-      <c r="CP173"/>
-      <c r="CQ173"/>
+      <c r="CG173" t="n">
+        <v>30</v>
+      </c>
+      <c r="CH173" t="n">
+        <v>132</v>
+      </c>
+      <c r="CI173" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ173" t="n">
+        <v>132</v>
+      </c>
+      <c r="CK173" t="n">
+        <v>-20.2</v>
+      </c>
+      <c r="CL173" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="CM173" t="n">
+        <v>132</v>
+      </c>
+      <c r="CN173" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO173" t="n">
+        <v>136</v>
+      </c>
+      <c r="CP173" t="n">
+        <v>69</v>
+      </c>
+      <c r="CQ173" t="n">
+        <v>132</v>
+      </c>
       <c r="CR173"/>
-      <c r="CS173"/>
-      <c r="CT173"/>
-      <c r="CU173"/>
-      <c r="CV173"/>
+      <c r="CS173" t="n">
+        <v>21</v>
+      </c>
+      <c r="CT173" t="n">
+        <v>136</v>
+      </c>
+      <c r="CU173" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV173" t="n">
+        <v>136</v>
+      </c>
       <c r="CW173"/>
       <c r="CX173"/>
     </row>
@@ -35579,13 +36637,13 @@
         <v>69</v>
       </c>
       <c r="C174" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D174" t="s">
         <v>144</v>
       </c>
       <c r="E174" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F174" t="s">
         <v>133</v>
@@ -35667,13 +36725,13 @@
         <v>149</v>
       </c>
       <c r="BC174" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="BD174" t="s">
         <v>137</v>
       </c>
       <c r="BE174" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="BF174" t="n">
         <v>12.2</v>
@@ -35716,7 +36774,7 @@
       <c r="BV174"/>
       <c r="BW174"/>
       <c r="BX174" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="BY174"/>
       <c r="BZ174"/>
@@ -35751,10 +36809,10 @@
         <v>109</v>
       </c>
       <c r="C175" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D175" t="s">
-        <v>482</v>
+        <v>225</v>
       </c>
       <c r="E175" t="s">
         <v>104</v>
@@ -35769,10 +36827,10 @@
         <v>104</v>
       </c>
       <c r="I175" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="J175" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K175" t="s">
         <v>135</v>
@@ -35910,7 +36968,7 @@
         <v>-0.311594202898551</v>
       </c>
       <c r="BX175" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="BY175"/>
       <c r="BZ175"/>
@@ -35949,10 +37007,10 @@
         <v>110</v>
       </c>
       <c r="C176" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D176" t="s">
-        <v>482</v>
+        <v>225</v>
       </c>
       <c r="E176" t="s">
         <v>104</v>
@@ -35967,7 +37025,7 @@
         <v>104</v>
       </c>
       <c r="I176" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="J176" t="s">
         <v>114</v>
@@ -36104,7 +37162,7 @@
         <v>-0.598503740648379</v>
       </c>
       <c r="BX176" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="BY176"/>
       <c r="BZ176"/>
@@ -36143,7 +37201,7 @@
         <v>111</v>
       </c>
       <c r="C177" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D177" t="s">
         <v>120</v>
@@ -36296,7 +37354,7 @@
         <v>-0.344532681734881</v>
       </c>
       <c r="BX177" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="BY177"/>
       <c r="BZ177"/>
@@ -36335,7 +37393,7 @@
         <v>112</v>
       </c>
       <c r="C178" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D178" t="s">
         <v>120</v>
@@ -36356,10 +37414,10 @@
         <v>121</v>
       </c>
       <c r="J178" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="K178" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="L178" t="n">
         <v>99</v>
@@ -36488,7 +37546,7 @@
         <v>-1.00970873786408</v>
       </c>
       <c r="BX178" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="BY178"/>
       <c r="BZ178"/>
@@ -36527,10 +37585,10 @@
         <v>123</v>
       </c>
       <c r="C179" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D179" t="s">
-        <v>464</v>
+        <v>321</v>
       </c>
       <c r="E179" t="s">
         <v>104</v>
@@ -36545,13 +37603,13 @@
         <v>104</v>
       </c>
       <c r="I179" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="J179" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="K179" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="L179" t="n">
         <v>7</v>
@@ -36644,7 +37702,7 @@
       </c>
       <c r="BC179"/>
       <c r="BD179" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="BE179"/>
       <c r="BF179" t="n">
@@ -36688,7 +37746,7 @@
         <v>-0.714859437751004</v>
       </c>
       <c r="BX179" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="BY179"/>
       <c r="BZ179"/>
@@ -36727,10 +37785,10 @@
         <v>113</v>
       </c>
       <c r="C180" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="D180" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="E180" t="s">
         <v>164</v>
@@ -36745,7 +37803,7 @@
         <v>164</v>
       </c>
       <c r="I180" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="J180" t="s">
         <v>192</v>
@@ -36896,7 +37954,7 @@
         <v>-1.16959064327485</v>
       </c>
       <c r="BX180" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="BY180"/>
       <c r="BZ180"/>
@@ -36935,7 +37993,7 @@
         <v>115</v>
       </c>
       <c r="C181" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D181" t="s">
         <v>218</v>
@@ -36950,13 +38008,13 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="I181" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="J181" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K181" t="s">
         <v>135</v>
@@ -37060,7 +38118,7 @@
       <c r="BV181"/>
       <c r="BW181"/>
       <c r="BX181" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="BY181"/>
       <c r="BZ181"/>
@@ -37095,7 +38153,7 @@
         <v>114</v>
       </c>
       <c r="C182" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D182" t="s">
         <v>218</v>
@@ -37110,10 +38168,10 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="I182" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="J182" t="s">
         <v>192</v>
@@ -37220,7 +38278,7 @@
       <c r="BV182"/>
       <c r="BW182"/>
       <c r="BX182" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="BY182"/>
       <c r="BZ182"/>
@@ -37255,7 +38313,7 @@
         <v>116</v>
       </c>
       <c r="C183" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D183" t="s">
         <v>183</v>
@@ -37270,10 +38328,10 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="I183" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="J183" t="s">
         <v>192</v>
@@ -37424,7 +38482,7 @@
         <v>-0.273284997211378</v>
       </c>
       <c r="BX183" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="BY183"/>
       <c r="BZ183"/>
@@ -37463,7 +38521,7 @@
         <v>117</v>
       </c>
       <c r="C184" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="D184" t="s">
         <v>127</v>
@@ -37481,7 +38539,7 @@
         <v>104</v>
       </c>
       <c r="I184" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="J184" t="s">
         <v>114</v>
@@ -37584,7 +38642,7 @@
       </c>
       <c r="BC184"/>
       <c r="BD184" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="BE184"/>
       <c r="BF184" t="n">
@@ -37632,7 +38690,7 @@
         <v>-0.0719794344473007</v>
       </c>
       <c r="BX184" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="BY184"/>
       <c r="BZ184"/>
